--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4000</v>
       </c>
       <c r="I8" s="3">
         <v>4000</v>
       </c>
       <c r="J8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="K8" s="3">
         <v>3700</v>
       </c>
       <c r="L8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>3300</v>
       </c>
       <c r="O8" s="3">
         <v>3300</v>
@@ -781,8 +784,11 @@
       <c r="Q8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +906,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +954,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,40 +1123,41 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
         <v>1000</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
+        <v>800</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
         <v>100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
@@ -1140,60 +1166,66 @@
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3400</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3200</v>
       </c>
       <c r="F18" s="3">
         <v>3200</v>
       </c>
       <c r="G18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3500</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3100</v>
       </c>
       <c r="K18" s="3">
         <v>3100</v>
       </c>
       <c r="L18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M18" s="3">
         <v>3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3000</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2800</v>
       </c>
       <c r="O18" s="3">
         <v>2800</v>
       </c>
       <c r="P18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q18" s="3">
         <v>2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,13 +1243,14 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="E20" s="3">
         <v>-2000</v>
@@ -1229,13 +1262,13 @@
         <v>-2000</v>
       </c>
       <c r="H20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1800</v>
       </c>
       <c r="K20" s="3">
         <v>-1800</v>
@@ -1244,22 +1277,25 @@
         <v>-1800</v>
       </c>
       <c r="M20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="N20" s="3">
         <v>-1700</v>
       </c>
       <c r="O20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,28 +1391,31 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1200</v>
       </c>
       <c r="F23" s="3">
         <v>1200</v>
       </c>
       <c r="G23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H23" s="3">
         <v>1300</v>
       </c>
       <c r="I23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J23" s="3">
         <v>1400</v>
@@ -1382,25 +1424,28 @@
         <v>1400</v>
       </c>
       <c r="L23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M23" s="3">
         <v>1900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>1300</v>
       </c>
       <c r="P23" s="3">
         <v>1300</v>
       </c>
       <c r="Q23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1408,16 +1453,16 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -1429,25 +1474,28 @@
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
       </c>
       <c r="O24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>300</v>
       </c>
       <c r="Q24" s="3">
+        <v>300</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,19 +1541,22 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1100</v>
       </c>
       <c r="G26" s="3">
         <v>1100</v>
@@ -1523,36 +1574,39 @@
         <v>1100</v>
       </c>
       <c r="L26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1000</v>
       </c>
       <c r="P26" s="3">
         <v>1000</v>
       </c>
       <c r="Q26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1100</v>
       </c>
       <c r="G27" s="3">
         <v>1100</v>
@@ -1570,25 +1624,28 @@
         <v>1100</v>
       </c>
       <c r="L27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1000</v>
       </c>
       <c r="P27" s="3">
         <v>1000</v>
       </c>
       <c r="Q27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,13 +1841,16 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="E32" s="3">
         <v>2000</v>
@@ -1793,13 +1862,13 @@
         <v>2000</v>
       </c>
       <c r="H32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1800</v>
       </c>
       <c r="K32" s="3">
         <v>1800</v>
@@ -1808,33 +1877,36 @@
         <v>1800</v>
       </c>
       <c r="M32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="N32" s="3">
         <v>1700</v>
       </c>
       <c r="O32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1100</v>
       </c>
       <c r="G33" s="3">
         <v>1100</v>
@@ -1852,25 +1924,28 @@
         <v>1100</v>
       </c>
       <c r="L33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1000</v>
       </c>
       <c r="P33" s="3">
         <v>1000</v>
       </c>
       <c r="Q33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,19 +1991,22 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1100</v>
       </c>
       <c r="G35" s="3">
         <v>1100</v>
@@ -1946,77 +2024,83 @@
         <v>1100</v>
       </c>
       <c r="L35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1000</v>
       </c>
       <c r="P35" s="3">
         <v>1000</v>
       </c>
       <c r="Q35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,102 +2138,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E41" s="3">
         <v>8400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>9900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E42" s="3">
         <v>13100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>23300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>21100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>24900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>17900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>9000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>19700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>15500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>7100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2286,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2336,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2386,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2335,8 +2436,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,55 +2486,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E48" s="3">
         <v>7200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>5400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>5700</v>
       </c>
       <c r="H48" s="3">
         <v>5700</v>
       </c>
       <c r="I48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J48" s="3">
         <v>5800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>6100</v>
       </c>
       <c r="L48" s="3">
         <v>6100</v>
       </c>
       <c r="M48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="N48" s="3">
         <v>5600</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5700</v>
       </c>
       <c r="O48" s="3">
         <v>5700</v>
       </c>
       <c r="P48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2686,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2608,17 +2727,20 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2786,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>417100</v>
+      </c>
+      <c r="E54" s="3">
         <v>419000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>414500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>395600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>398200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>387800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>379800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>372100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>372700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>372300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>366900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>355200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>351800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>342500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2878,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +2926,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,55 +2976,61 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>2900</v>
       </c>
       <c r="I59" s="3">
         <v>2900</v>
       </c>
       <c r="J59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2700</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2000</v>
       </c>
       <c r="P59" s="3">
         <v>2000</v>
       </c>
       <c r="Q59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,8 +3076,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3126,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3176,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3326,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>370800</v>
+      </c>
+      <c r="E66" s="3">
         <v>373400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>369800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>352700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>356800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>348100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>339800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>332500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>333100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>333400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>329200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>318900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>314300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>304500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3371,16 +3538,19 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>2300</v>
       </c>
       <c r="Q70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3596,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E72" s="3">
         <v>44700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>43700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>42900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>42100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>41200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>40300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>40000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>39300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>38400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>37200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3796,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E76" s="3">
         <v>45600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>42800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>41400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>40000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>39600</v>
       </c>
       <c r="K76" s="3">
         <v>39600</v>
       </c>
       <c r="L76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="M76" s="3">
         <v>38900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>36300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>35300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,71 +3896,77 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1100</v>
       </c>
       <c r="G81" s="3">
         <v>1100</v>
@@ -3790,25 +3984,28 @@
         <v>1100</v>
       </c>
       <c r="L81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1000</v>
       </c>
       <c r="P81" s="3">
         <v>1000</v>
       </c>
       <c r="Q81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4071,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4321,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4371,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4393,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4441,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4541,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4362,8 +4591,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4811,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4861,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4911,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4959,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,122 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4000</v>
       </c>
       <c r="J8" s="3">
         <v>4000</v>
       </c>
       <c r="K8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="L8" s="3">
         <v>3700</v>
       </c>
       <c r="M8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3500</v>
-      </c>
-      <c r="O8" s="3">
-        <v>3300</v>
       </c>
       <c r="P8" s="3">
         <v>3300</v>
@@ -787,8 +791,11 @@
       <c r="R8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,8 +920,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -957,8 +971,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,8 +1150,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1133,34 +1160,34 @@
         <v>1000</v>
       </c>
       <c r="E17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
       </c>
       <c r="G17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H17" s="3">
         <v>1000</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
+        <v>800</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
       </c>
       <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>100</v>
-      </c>
-      <c r="N17" s="3">
-        <v>500</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
@@ -1169,63 +1196,69 @@
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>3300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3400</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3200</v>
       </c>
       <c r="G18" s="3">
         <v>3200</v>
       </c>
       <c r="H18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3100</v>
       </c>
       <c r="L18" s="3">
         <v>3100</v>
       </c>
       <c r="M18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N18" s="3">
         <v>3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>2800</v>
       </c>
       <c r="P18" s="3">
         <v>2800</v>
       </c>
       <c r="Q18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R18" s="3">
         <v>2700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,16 +1277,17 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2000</v>
       </c>
       <c r="F20" s="3">
         <v>-2000</v>
@@ -1265,13 +1299,13 @@
         <v>-2000</v>
       </c>
       <c r="I20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1800</v>
       </c>
       <c r="L20" s="3">
         <v>-1800</v>
@@ -1280,22 +1314,25 @@
         <v>-1800</v>
       </c>
       <c r="N20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="O20" s="3">
         <v>-1700</v>
       </c>
       <c r="P20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,31 +1434,34 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1200</v>
       </c>
       <c r="G23" s="3">
         <v>1200</v>
       </c>
       <c r="H23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I23" s="3">
         <v>1300</v>
       </c>
       <c r="J23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K23" s="3">
         <v>1400</v>
@@ -1427,25 +1470,28 @@
         <v>1400</v>
       </c>
       <c r="M23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N23" s="3">
         <v>1900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1300</v>
       </c>
       <c r="Q23" s="3">
         <v>1300</v>
       </c>
       <c r="R23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1456,16 +1502,16 @@
         <v>200</v>
       </c>
       <c r="F24" s="3">
+        <v>200</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>200</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
@@ -1477,25 +1523,28 @@
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>500</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
       </c>
       <c r="P24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>300</v>
       </c>
       <c r="R24" s="3">
+        <v>300</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,22 +1593,25 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>1300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1100</v>
       </c>
       <c r="H26" s="3">
         <v>1100</v>
@@ -1577,39 +1629,42 @@
         <v>1100</v>
       </c>
       <c r="M26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1000</v>
       </c>
       <c r="Q26" s="3">
         <v>1000</v>
       </c>
       <c r="R26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>1300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1100</v>
       </c>
       <c r="H27" s="3">
         <v>1100</v>
@@ -1627,25 +1682,28 @@
         <v>1100</v>
       </c>
       <c r="M27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1000</v>
       </c>
       <c r="Q27" s="3">
         <v>1000</v>
       </c>
       <c r="R27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,16 +1911,19 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2000</v>
       </c>
       <c r="F32" s="3">
         <v>2000</v>
@@ -1865,13 +1935,13 @@
         <v>2000</v>
       </c>
       <c r="I32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1800</v>
       </c>
       <c r="L32" s="3">
         <v>1800</v>
@@ -1880,36 +1950,39 @@
         <v>1800</v>
       </c>
       <c r="N32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="O32" s="3">
         <v>1700</v>
       </c>
       <c r="P32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>1300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1100</v>
       </c>
       <c r="H33" s="3">
         <v>1100</v>
@@ -1927,25 +2000,28 @@
         <v>1100</v>
       </c>
       <c r="M33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1000</v>
       </c>
       <c r="Q33" s="3">
         <v>1000</v>
       </c>
       <c r="R33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,22 +2070,25 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>1300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1100</v>
       </c>
       <c r="H35" s="3">
         <v>1100</v>
@@ -2027,80 +2106,86 @@
         <v>1100</v>
       </c>
       <c r="M35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1000</v>
       </c>
       <c r="Q35" s="3">
         <v>1000</v>
       </c>
       <c r="R35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,108 +2225,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>5900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>9900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E42" s="3">
         <v>16500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>13100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>21100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>24900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>17900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>16600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>19700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>15500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>7100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2289,8 +2382,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2435,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2389,8 +2488,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,58 +2594,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E48" s="3">
         <v>7800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>5400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>5700</v>
       </c>
       <c r="I48" s="3">
         <v>5700</v>
       </c>
       <c r="J48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>6100</v>
       </c>
       <c r="M48" s="3">
         <v>6100</v>
       </c>
       <c r="N48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="O48" s="3">
         <v>5600</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5700</v>
       </c>
       <c r="P48" s="3">
         <v>5700</v>
       </c>
       <c r="Q48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="R48" s="3">
         <v>5600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,8 +2806,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2730,17 +2850,20 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,58 +2912,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>423600</v>
+      </c>
+      <c r="E54" s="3">
         <v>417100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>419000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>414500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>395600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>398200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>387800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>379800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>372100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>372700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>372300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>366900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>355200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>351800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>342500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,8 +3009,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2979,58 +3113,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2900</v>
       </c>
       <c r="J59" s="3">
         <v>2900</v>
       </c>
       <c r="K59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2700</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2000</v>
       </c>
       <c r="Q59" s="3">
         <v>2000</v>
       </c>
       <c r="R59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,8 +3272,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,58 +3484,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>378300</v>
+      </c>
+      <c r="E66" s="3">
         <v>370800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>373400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>369800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>352700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>356800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>348100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>339800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>332500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>333100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>333400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>329200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>318900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>314300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>304500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3541,16 +3709,19 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="3">
         <v>2300</v>
       </c>
       <c r="R70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,58 +3770,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E72" s="3">
         <v>45700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>44700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>43700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>42900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>42100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>41200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>40300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>40000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>39300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>38400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>37200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,58 +3982,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45300</v>
+      </c>
+      <c r="E76" s="3">
         <v>46300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>42800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>41400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>39800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>40000</v>
-      </c>
-      <c r="K76" s="3">
-        <v>39600</v>
       </c>
       <c r="L76" s="3">
         <v>39600</v>
       </c>
       <c r="M76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="N76" s="3">
         <v>38900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>36300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>35300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,77 +4088,83 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>1300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1100</v>
       </c>
       <c r="H81" s="3">
         <v>1100</v>
@@ -3987,25 +4182,28 @@
         <v>1100</v>
       </c>
       <c r="M81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1000</v>
       </c>
       <c r="Q81" s="3">
         <v>1000</v>
       </c>
       <c r="R81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4074,8 +4273,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,8 +4538,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,8 +4614,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4444,8 +4665,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,8 +4771,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,8 +5057,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,8 +5163,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,129 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4000</v>
       </c>
       <c r="K8" s="3">
         <v>4000</v>
       </c>
       <c r="L8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="M8" s="3">
         <v>3700</v>
       </c>
       <c r="N8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3500</v>
-      </c>
-      <c r="P8" s="3">
-        <v>3300</v>
       </c>
       <c r="Q8" s="3">
         <v>3300</v>
@@ -794,8 +798,11 @@
       <c r="S8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -847,8 +854,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,8 +910,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,8 +934,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -974,8 +988,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,8 +1044,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1080,8 +1100,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1133,8 +1156,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,46 +1177,47 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E17" s="3">
         <v>1000</v>
       </c>
       <c r="F17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G17" s="3">
         <v>1100</v>
       </c>
       <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>800</v>
       </c>
       <c r="K17" s="3">
+        <v>800</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
       </c>
       <c r="N17" s="3">
+        <v>600</v>
+      </c>
+      <c r="O17" s="3">
         <v>100</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
@@ -1199,13 +1226,16 @@
         <v>500</v>
       </c>
       <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1213,52 +1243,55 @@
         <v>3500</v>
       </c>
       <c r="E18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F18" s="3">
         <v>3300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3200</v>
       </c>
       <c r="H18" s="3">
         <v>3200</v>
       </c>
       <c r="I18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3100</v>
       </c>
       <c r="M18" s="3">
         <v>3100</v>
       </c>
       <c r="N18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O18" s="3">
         <v>3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>2800</v>
       </c>
       <c r="Q18" s="3">
         <v>2800</v>
       </c>
       <c r="R18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S18" s="3">
         <v>2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,19 +1311,20 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2000</v>
       </c>
       <c r="G20" s="3">
         <v>-2000</v>
@@ -1302,13 +1336,13 @@
         <v>-2000</v>
       </c>
       <c r="J20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1800</v>
       </c>
       <c r="M20" s="3">
         <v>-1800</v>
@@ -1317,22 +1351,25 @@
         <v>-1800</v>
       </c>
       <c r="O20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="P20" s="3">
         <v>-1700</v>
       </c>
       <c r="Q20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1384,8 +1421,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1437,34 +1477,37 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1200</v>
       </c>
       <c r="H23" s="3">
         <v>1200</v>
       </c>
       <c r="I23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J23" s="3">
         <v>1300</v>
       </c>
       <c r="K23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L23" s="3">
         <v>1400</v>
@@ -1473,30 +1516,33 @@
         <v>1400</v>
       </c>
       <c r="N23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O23" s="3">
         <v>1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1300</v>
       </c>
       <c r="R23" s="3">
         <v>1300</v>
       </c>
       <c r="S23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>200</v>
@@ -1505,16 +1551,16 @@
         <v>200</v>
       </c>
       <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>200</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1526,25 +1572,28 @@
         <v>200</v>
       </c>
       <c r="N24" s="3">
+        <v>200</v>
+      </c>
+      <c r="O24" s="3">
         <v>500</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
       </c>
       <c r="Q24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>300</v>
       </c>
       <c r="S24" s="3">
+        <v>300</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,25 +1645,28 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1100</v>
       </c>
       <c r="I26" s="3">
         <v>1100</v>
@@ -1632,42 +1684,45 @@
         <v>1100</v>
       </c>
       <c r="N26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>900</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1000</v>
       </c>
       <c r="R26" s="3">
         <v>1000</v>
       </c>
       <c r="S26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1100</v>
       </c>
       <c r="I27" s="3">
         <v>1100</v>
@@ -1685,25 +1740,28 @@
         <v>1100</v>
       </c>
       <c r="N27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>900</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1000</v>
       </c>
       <c r="R27" s="3">
         <v>1000</v>
       </c>
       <c r="S27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1813,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1869,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1925,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,19 +1981,22 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2000</v>
       </c>
       <c r="G32" s="3">
         <v>2000</v>
@@ -1938,13 +2008,13 @@
         <v>2000</v>
       </c>
       <c r="J32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2100</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1800</v>
       </c>
       <c r="M32" s="3">
         <v>1800</v>
@@ -1953,39 +2023,42 @@
         <v>1800</v>
       </c>
       <c r="O32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="P32" s="3">
         <v>1700</v>
       </c>
       <c r="Q32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1100</v>
       </c>
       <c r="I33" s="3">
         <v>1100</v>
@@ -2003,25 +2076,28 @@
         <v>1100</v>
       </c>
       <c r="N33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>900</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1000</v>
       </c>
       <c r="R33" s="3">
         <v>1000</v>
       </c>
       <c r="S33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,25 +2149,28 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1100</v>
       </c>
       <c r="I35" s="3">
         <v>1100</v>
@@ -2109,83 +2188,89 @@
         <v>1100</v>
       </c>
       <c r="N35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>900</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1000</v>
       </c>
       <c r="R35" s="3">
         <v>1000</v>
       </c>
       <c r="S35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2290,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,114 +2312,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>31500</v>
+      </c>
+      <c r="E42" s="3">
         <v>14000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>16500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>13100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>23300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>21100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>24900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>17900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>16600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>19700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>15500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>7100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2385,8 +2478,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2438,8 +2534,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2491,8 +2590,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2544,8 +2646,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,61 +2702,67 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E48" s="3">
         <v>8500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>5400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>5700</v>
       </c>
       <c r="J48" s="3">
         <v>5700</v>
       </c>
       <c r="K48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>6100</v>
       </c>
       <c r="N48" s="3">
         <v>6100</v>
       </c>
       <c r="O48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="P48" s="3">
         <v>5600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>5700</v>
       </c>
       <c r="Q48" s="3">
         <v>5700</v>
       </c>
       <c r="R48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="S48" s="3">
         <v>5600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2703,8 +2814,11 @@
       <c r="S49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2870,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +2926,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2853,17 +2973,20 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,61 +3038,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>461700</v>
+      </c>
+      <c r="E54" s="3">
         <v>423600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>417100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>419000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>414500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>395600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>398200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>387800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>379800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>372100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>372700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>372300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>366900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>355200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>351800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>342500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3118,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,8 +3140,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3063,8 +3194,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3116,61 +3250,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E59" s="3">
         <v>3500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
-      </c>
-      <c r="J59" s="3">
-        <v>2900</v>
       </c>
       <c r="K59" s="3">
         <v>2900</v>
       </c>
       <c r="L59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2000</v>
       </c>
       <c r="R59" s="3">
         <v>2000</v>
       </c>
       <c r="S59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3222,8 +3362,11 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3275,8 +3418,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3328,8 +3474,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3530,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3586,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,61 +3642,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>412500</v>
+      </c>
+      <c r="E66" s="3">
         <v>378300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>370800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>373400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>369800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>352700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>356800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>348100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>339800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>332500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>333100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>333400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>329200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>318900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>314300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>304500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3722,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3776,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3832,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3712,16 +3880,19 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="R70" s="3">
         <v>2300</v>
       </c>
       <c r="S70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,61 +3944,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E72" s="3">
         <v>46500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>45700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>44700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>43700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>42900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>41200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>40300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>40000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>39300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>38400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>37200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4056,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4112,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,61 +4168,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>49200</v>
+      </c>
+      <c r="E76" s="3">
         <v>45300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>42800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>41400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>39800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>40000</v>
-      </c>
-      <c r="L76" s="3">
-        <v>39600</v>
       </c>
       <c r="M76" s="3">
         <v>39600</v>
       </c>
       <c r="N76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="O76" s="3">
         <v>38900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>37800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>36300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>35300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,83 +4280,89 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1100</v>
       </c>
       <c r="I81" s="3">
         <v>1100</v>
@@ -4185,25 +4380,28 @@
         <v>1100</v>
       </c>
       <c r="N81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>900</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1000</v>
       </c>
       <c r="R81" s="3">
         <v>1000</v>
       </c>
       <c r="S81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,8 +4421,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4276,8 +4475,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4531,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4587,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4643,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4699,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,8 +4755,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4594,8 +4811,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,8 +4835,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4668,8 +4889,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +4945,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,8 +5001,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4827,8 +5057,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5081,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5135,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5191,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5247,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,8 +5303,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5113,8 +5359,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5166,8 +5415,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5217,6 +5469,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -754,43 +758,43 @@
         <v>4300</v>
       </c>
       <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="3">
         <v>4500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4000</v>
       </c>
       <c r="L8" s="3">
         <v>4000</v>
       </c>
       <c r="M8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="N8" s="3">
         <v>3700</v>
       </c>
       <c r="O8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="P8" s="3">
         <v>3800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>3300</v>
       </c>
       <c r="R8" s="3">
         <v>3300</v>
@@ -801,8 +805,11 @@
       <c r="T8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -857,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -913,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -935,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -991,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1047,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1178,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1187,40 +1214,40 @@
         <v>800</v>
       </c>
       <c r="E17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>1000</v>
       </c>
       <c r="G17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H17" s="3">
         <v>1100</v>
       </c>
       <c r="I17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J17" s="3">
         <v>1000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
       </c>
       <c r="L17" s="3">
+        <v>800</v>
+      </c>
+      <c r="M17" s="3">
         <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
       </c>
       <c r="O17" s="3">
+        <v>600</v>
+      </c>
+      <c r="P17" s="3">
         <v>100</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
@@ -1229,13 +1256,16 @@
         <v>500</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1246,52 +1276,55 @@
         <v>3500</v>
       </c>
       <c r="F18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="3">
         <v>3300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3200</v>
       </c>
       <c r="I18" s="3">
         <v>3200</v>
       </c>
       <c r="J18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3100</v>
       </c>
       <c r="N18" s="3">
         <v>3100</v>
       </c>
       <c r="O18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P18" s="3">
         <v>3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2800</v>
       </c>
       <c r="R18" s="3">
         <v>2800</v>
       </c>
       <c r="S18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T18" s="3">
         <v>2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,22 +1345,23 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2000</v>
       </c>
       <c r="H20" s="3">
         <v>-2000</v>
@@ -1339,13 +1373,13 @@
         <v>-2000</v>
       </c>
       <c r="K20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1800</v>
       </c>
       <c r="N20" s="3">
         <v>-1800</v>
@@ -1354,22 +1388,25 @@
         <v>-1800</v>
       </c>
       <c r="P20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Q20" s="3">
         <v>-1700</v>
       </c>
       <c r="R20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1424,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1480,37 +1520,40 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1200</v>
       </c>
       <c r="I23" s="3">
         <v>1200</v>
       </c>
       <c r="J23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="K23" s="3">
         <v>1300</v>
       </c>
       <c r="L23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="M23" s="3">
         <v>1400</v>
@@ -1519,25 +1562,28 @@
         <v>1400</v>
       </c>
       <c r="O23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P23" s="3">
         <v>1900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1300</v>
       </c>
       <c r="S23" s="3">
         <v>1300</v>
       </c>
       <c r="T23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,7 +1591,7 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -1554,16 +1600,16 @@
         <v>200</v>
       </c>
       <c r="H24" s="3">
+        <v>200</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>200</v>
       </c>
       <c r="L24" s="3">
         <v>200</v>
@@ -1575,25 +1621,28 @@
         <v>200</v>
       </c>
       <c r="O24" s="3">
+        <v>200</v>
+      </c>
+      <c r="P24" s="3">
         <v>500</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>300</v>
       </c>
       <c r="T24" s="3">
+        <v>300</v>
+      </c>
+      <c r="U24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,28 +1697,31 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1100</v>
       </c>
       <c r="J26" s="3">
         <v>1100</v>
@@ -1687,45 +1739,48 @@
         <v>1100</v>
       </c>
       <c r="O26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>900</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1000</v>
       </c>
       <c r="S26" s="3">
         <v>1000</v>
       </c>
       <c r="T26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1100</v>
       </c>
       <c r="J27" s="3">
         <v>1100</v>
@@ -1743,25 +1798,28 @@
         <v>1100</v>
       </c>
       <c r="O27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>900</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1000</v>
       </c>
       <c r="S27" s="3">
         <v>1000</v>
       </c>
       <c r="T27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1816,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1872,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1928,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1984,22 +2051,25 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2000</v>
       </c>
       <c r="H32" s="3">
         <v>2000</v>
@@ -2011,13 +2081,13 @@
         <v>2000</v>
       </c>
       <c r="K32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2100</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1800</v>
       </c>
       <c r="N32" s="3">
         <v>1800</v>
@@ -2026,42 +2096,45 @@
         <v>1800</v>
       </c>
       <c r="P32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Q32" s="3">
         <v>1700</v>
       </c>
       <c r="R32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>1100</v>
       </c>
       <c r="J33" s="3">
         <v>1100</v>
@@ -2079,25 +2152,28 @@
         <v>1100</v>
       </c>
       <c r="O33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>900</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1000</v>
       </c>
       <c r="S33" s="3">
         <v>1000</v>
       </c>
       <c r="T33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2152,28 +2228,31 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>1100</v>
       </c>
       <c r="J35" s="3">
         <v>1100</v>
@@ -2191,86 +2270,92 @@
         <v>1100</v>
       </c>
       <c r="O35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>900</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1000</v>
       </c>
       <c r="S35" s="3">
         <v>1000</v>
       </c>
       <c r="T35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2291,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2313,120 +2399,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>9900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E42" s="3">
         <v>31500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>14000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>16500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>13100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>23300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>21100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>24900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>9000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>19700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>17300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>15500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>7100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2481,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2537,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2593,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2649,8 +2751,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2705,64 +2810,70 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>5400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>5700</v>
       </c>
       <c r="K48" s="3">
         <v>5700</v>
       </c>
       <c r="L48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>6100</v>
       </c>
       <c r="O48" s="3">
         <v>6100</v>
       </c>
       <c r="P48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5600</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>5700</v>
       </c>
       <c r="R48" s="3">
         <v>5700</v>
       </c>
       <c r="S48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="T48" s="3">
         <v>5600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2817,8 +2928,11 @@
       <c r="T49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2873,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2929,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2976,17 +3096,20 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
+      <c r="R52" s="3">
+        <v>0</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3041,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>466200</v>
+      </c>
+      <c r="E54" s="3">
         <v>461700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>423600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>417100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>419000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>414500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>395600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>398200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>387800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>379800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>372100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>372700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>372300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>366900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>355200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>351800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>342500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3119,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3141,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3197,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3253,64 +3387,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2900</v>
       </c>
       <c r="L59" s="3">
         <v>2900</v>
       </c>
       <c r="M59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2700</v>
-      </c>
-      <c r="R59" s="3">
-        <v>2000</v>
       </c>
       <c r="S59" s="3">
         <v>2000</v>
       </c>
       <c r="T59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3365,8 +3505,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3421,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3477,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3533,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3645,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>415700</v>
+      </c>
+      <c r="E66" s="3">
         <v>412500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>378300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>370800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>373400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>369800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>352700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>356800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>348100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>339800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>332500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>333100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>333400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>329200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>318900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>314300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>304500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3723,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3779,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3835,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3883,16 +4051,19 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="S70" s="3">
         <v>2300</v>
       </c>
       <c r="T70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3947,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E72" s="3">
         <v>47700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>46500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>45700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>44700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>43700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>42900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>41200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>40300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>40000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>39300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>38400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>37200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4059,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4115,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4171,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>50500</v>
+      </c>
+      <c r="E76" s="3">
         <v>49200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>44700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>42800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>41400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>39800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>40000</v>
-      </c>
-      <c r="M76" s="3">
-        <v>39600</v>
       </c>
       <c r="N76" s="3">
         <v>39600</v>
       </c>
       <c r="O76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="P76" s="3">
         <v>38900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>37800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>36300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>35300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4283,89 +4472,95 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>1100</v>
       </c>
       <c r="J81" s="3">
         <v>1100</v>
@@ -4383,25 +4578,28 @@
         <v>1100</v>
       </c>
       <c r="O81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>900</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1000</v>
       </c>
       <c r="S81" s="3">
         <v>1000</v>
       </c>
       <c r="T81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4422,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4478,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4534,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4590,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4646,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4702,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4758,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4814,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4836,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4892,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4948,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5060,8 +5290,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5082,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5138,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5194,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5250,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5306,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5362,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5418,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5472,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,95 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,43 +764,43 @@
         <v>4300</v>
       </c>
       <c r="F8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G8" s="3">
         <v>4500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4000</v>
       </c>
       <c r="M8" s="3">
         <v>4000</v>
       </c>
       <c r="N8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="O8" s="3">
         <v>3700</v>
       </c>
       <c r="P8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3300</v>
       </c>
       <c r="S8" s="3">
         <v>3300</v>
@@ -808,8 +811,11 @@
       <c r="U8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +873,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +935,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +961,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1021,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1145,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,52 +1230,53 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>1000</v>
       </c>
       <c r="H17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="3">
         <v>1100</v>
       </c>
       <c r="J17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
+        <v>800</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
       </c>
       <c r="O17" s="3">
         <v>600</v>
       </c>
       <c r="P17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>100</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
@@ -1259,18 +1285,21 @@
         <v>500</v>
       </c>
       <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E18" s="3">
         <v>3500</v>
@@ -1279,52 +1308,55 @@
         <v>3500</v>
       </c>
       <c r="G18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="H18" s="3">
         <v>3300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3200</v>
       </c>
       <c r="J18" s="3">
         <v>3200</v>
       </c>
       <c r="K18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3500</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3100</v>
       </c>
       <c r="O18" s="3">
         <v>3100</v>
       </c>
       <c r="P18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3000</v>
-      </c>
-      <c r="R18" s="3">
-        <v>2800</v>
       </c>
       <c r="S18" s="3">
         <v>2800</v>
       </c>
       <c r="T18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="U18" s="3">
         <v>2700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1378,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,16 +1388,16 @@
         <v>-1400</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-2000</v>
       </c>
       <c r="I20" s="3">
         <v>-2000</v>
@@ -1376,13 +1409,13 @@
         <v>-2000</v>
       </c>
       <c r="L20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-1800</v>
       </c>
       <c r="O20" s="3">
         <v>-1800</v>
@@ -1391,22 +1424,25 @@
         <v>-1800</v>
       </c>
       <c r="Q20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="R20" s="3">
         <v>-1700</v>
       </c>
       <c r="S20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1500,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1562,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,31 +1574,31 @@
         <v>2100</v>
       </c>
       <c r="E23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1400</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1200</v>
       </c>
       <c r="J23" s="3">
         <v>1200</v>
       </c>
       <c r="K23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="L23" s="3">
         <v>1300</v>
       </c>
       <c r="M23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N23" s="3">
         <v>1400</v>
@@ -1565,25 +1607,28 @@
         <v>1400</v>
       </c>
       <c r="P23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q23" s="3">
         <v>1900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1300</v>
       </c>
       <c r="T23" s="3">
         <v>1300</v>
       </c>
       <c r="U23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1594,7 +1639,7 @@
         <v>300</v>
       </c>
       <c r="F24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>200</v>
@@ -1603,16 +1648,16 @@
         <v>200</v>
       </c>
       <c r="I24" s="3">
+        <v>200</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>200</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
@@ -1624,25 +1669,28 @@
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>500</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>200</v>
       </c>
       <c r="R24" s="3">
         <v>200</v>
       </c>
       <c r="S24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>300</v>
       </c>
       <c r="U24" s="3">
+        <v>300</v>
+      </c>
+      <c r="V24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,31 +1748,34 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1100</v>
       </c>
       <c r="K26" s="3">
         <v>1100</v>
@@ -1742,48 +1793,51 @@
         <v>1100</v>
       </c>
       <c r="P26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q26" s="3">
         <v>1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>900</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1000</v>
       </c>
       <c r="T26" s="3">
         <v>1000</v>
       </c>
       <c r="U26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1100</v>
       </c>
       <c r="K27" s="3">
         <v>1100</v>
@@ -1801,25 +1855,28 @@
         <v>1100</v>
       </c>
       <c r="P27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q27" s="3">
         <v>1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>900</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1000</v>
       </c>
       <c r="T27" s="3">
         <v>1000</v>
       </c>
       <c r="U27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2120,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,16 +2132,16 @@
         <v>1400</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
         <v>1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>2000</v>
       </c>
       <c r="I32" s="3">
         <v>2000</v>
@@ -2084,13 +2153,13 @@
         <v>2000</v>
       </c>
       <c r="L32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1800</v>
       </c>
       <c r="O32" s="3">
         <v>1800</v>
@@ -2099,45 +2168,48 @@
         <v>1800</v>
       </c>
       <c r="Q32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="R32" s="3">
         <v>1700</v>
       </c>
       <c r="S32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>1100</v>
       </c>
       <c r="K33" s="3">
         <v>1100</v>
@@ -2155,25 +2227,28 @@
         <v>1100</v>
       </c>
       <c r="P33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q33" s="3">
         <v>1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>900</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1000</v>
       </c>
       <c r="T33" s="3">
         <v>1000</v>
       </c>
       <c r="U33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,31 +2306,34 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1100</v>
       </c>
       <c r="K35" s="3">
         <v>1100</v>
@@ -2273,89 +2351,95 @@
         <v>1100</v>
       </c>
       <c r="P35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q35" s="3">
         <v>1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>900</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1000</v>
       </c>
       <c r="T35" s="3">
         <v>1000</v>
       </c>
       <c r="U35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,126 +2485,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>8400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>9900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E42" s="3">
         <v>28400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>31500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>14000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>16500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>13100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>23300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>21100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>24900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>17900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>13200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>9000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>19700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>17300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>15500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>7100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2669,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2731,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2793,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2754,8 +2855,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,67 +2917,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E48" s="3">
         <v>9400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>5400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>5700</v>
       </c>
       <c r="L48" s="3">
         <v>5700</v>
       </c>
       <c r="M48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N48" s="3">
         <v>5800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>6100</v>
       </c>
       <c r="P48" s="3">
         <v>6100</v>
       </c>
       <c r="Q48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="R48" s="3">
         <v>5600</v>
-      </c>
-      <c r="R48" s="3">
-        <v>5700</v>
       </c>
       <c r="S48" s="3">
         <v>5700</v>
       </c>
       <c r="T48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="U48" s="3">
         <v>5600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3041,11 @@
       <c r="U49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3165,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3099,17 +3218,20 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
+      <c r="S52" s="3">
+        <v>0</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3289,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>467700</v>
+      </c>
+      <c r="E54" s="3">
         <v>466200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>461700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>423600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>417100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>419000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>414500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>395600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>398200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>387800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>379800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>372100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>372700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>372300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>366900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>355200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>351800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>342500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3401,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,8 +3461,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,67 +3523,73 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E59" s="3">
         <v>4100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2900</v>
       </c>
       <c r="M59" s="3">
         <v>2900</v>
       </c>
       <c r="N59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>2000</v>
       </c>
       <c r="T59" s="3">
         <v>2000</v>
       </c>
       <c r="U59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,8 +3647,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3709,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3771,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3957,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>415400</v>
+      </c>
+      <c r="E66" s="3">
         <v>415700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>412500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>378300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>370800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>373400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>369800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>352700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>356800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>348100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>339800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>332500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>333100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>333400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>329200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>318900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>314300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>304500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4054,16 +4221,19 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="T70" s="3">
         <v>2300</v>
       </c>
       <c r="U70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4291,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E72" s="3">
         <v>49100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>47700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>46500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>45700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>44700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>43700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>42900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>41200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>40300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>40000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>39300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>38400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>37200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4539,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52300</v>
+      </c>
+      <c r="E76" s="3">
         <v>50500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>49200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>45300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>44700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>42800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>41400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>39800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>40000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>39600</v>
       </c>
       <c r="O76" s="3">
         <v>39600</v>
       </c>
       <c r="P76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>38900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>37800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>36300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>35300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,95 +4663,101 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>1100</v>
       </c>
       <c r="K81" s="3">
         <v>1100</v>
@@ -4581,25 +4775,28 @@
         <v>1100</v>
       </c>
       <c r="P81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q81" s="3">
         <v>1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>900</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1000</v>
       </c>
       <c r="T81" s="3">
         <v>1000</v>
       </c>
       <c r="U81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4818,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4878,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5188,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5250,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5276,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5336,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5460,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5293,8 +5522,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5794,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5856,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5918,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5978,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,100 +665,104 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E8" s="3">
         <v>4300</v>
@@ -767,43 +771,43 @@
         <v>4300</v>
       </c>
       <c r="G8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H8" s="3">
         <v>4500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4000</v>
       </c>
       <c r="N8" s="3">
         <v>4000</v>
       </c>
       <c r="O8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="P8" s="3">
         <v>3700</v>
       </c>
       <c r="Q8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="R8" s="3">
         <v>3800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3500</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3300</v>
       </c>
       <c r="T8" s="3">
         <v>3300</v>
@@ -814,8 +818,11 @@
       <c r="V8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -876,8 +883,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +948,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1024,8 +1038,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,55 +1257,56 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
-      </c>
-      <c r="E17" s="3">
-        <v>800</v>
       </c>
       <c r="F17" s="3">
         <v>800</v>
       </c>
       <c r="G17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>1000</v>
       </c>
       <c r="I17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J17" s="3">
         <v>1100</v>
       </c>
       <c r="K17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="3">
         <v>1000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
+        <v>800</v>
+      </c>
+      <c r="O17" s="3">
         <v>500</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
         <v>100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
@@ -1288,21 +1315,24 @@
         <v>500</v>
       </c>
       <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>3600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3500</v>
       </c>
       <c r="F18" s="3">
         <v>3500</v>
@@ -1311,52 +1341,55 @@
         <v>3500</v>
       </c>
       <c r="H18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="I18" s="3">
         <v>3300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3400</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3200</v>
       </c>
       <c r="K18" s="3">
         <v>3200</v>
       </c>
       <c r="L18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3100</v>
       </c>
       <c r="P18" s="3">
         <v>3100</v>
       </c>
       <c r="Q18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R18" s="3">
         <v>3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3000</v>
-      </c>
-      <c r="S18" s="3">
-        <v>2800</v>
       </c>
       <c r="T18" s="3">
         <v>2800</v>
       </c>
       <c r="U18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="V18" s="3">
         <v>2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,28 +1412,29 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="E20" s="3">
         <v>-1400</v>
       </c>
       <c r="F20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-2300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-2000</v>
       </c>
       <c r="J20" s="3">
         <v>-2000</v>
@@ -1412,13 +1446,13 @@
         <v>-2000</v>
       </c>
       <c r="M20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-1800</v>
       </c>
       <c r="P20" s="3">
         <v>-1800</v>
@@ -1427,22 +1461,25 @@
         <v>-1800</v>
       </c>
       <c r="R20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="S20" s="3">
         <v>-1700</v>
       </c>
       <c r="T20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1503,8 +1540,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1565,43 +1605,46 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="E23" s="3">
         <v>2100</v>
       </c>
       <c r="F23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G23" s="3">
         <v>1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>1200</v>
       </c>
       <c r="K23" s="3">
         <v>1200</v>
       </c>
       <c r="L23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="M23" s="3">
         <v>1300</v>
       </c>
       <c r="N23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O23" s="3">
         <v>1400</v>
@@ -1610,25 +1653,28 @@
         <v>1400</v>
       </c>
       <c r="Q23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R23" s="3">
         <v>1900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>1300</v>
       </c>
       <c r="U23" s="3">
         <v>1300</v>
       </c>
       <c r="V23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,7 +1688,7 @@
         <v>300</v>
       </c>
       <c r="G24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>200</v>
@@ -1651,16 +1697,16 @@
         <v>200</v>
       </c>
       <c r="J24" s="3">
+        <v>200</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>200</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
@@ -1672,25 +1718,28 @@
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>500</v>
-      </c>
-      <c r="R24" s="3">
-        <v>200</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
       </c>
       <c r="T24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>300</v>
       </c>
       <c r="V24" s="3">
+        <v>300</v>
+      </c>
+      <c r="W24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,34 +1800,37 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>1100</v>
       </c>
       <c r="L26" s="3">
         <v>1100</v>
@@ -1796,51 +1848,54 @@
         <v>1100</v>
       </c>
       <c r="Q26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R26" s="3">
         <v>1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>900</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1000</v>
       </c>
       <c r="U26" s="3">
         <v>1000</v>
       </c>
       <c r="V26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>1100</v>
       </c>
       <c r="L27" s="3">
         <v>1100</v>
@@ -1858,25 +1913,28 @@
         <v>1100</v>
       </c>
       <c r="Q27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R27" s="3">
         <v>1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>900</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1000</v>
       </c>
       <c r="U27" s="3">
         <v>1000</v>
       </c>
       <c r="V27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,28 +2190,31 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E32" s="3">
         <v>1400</v>
       </c>
       <c r="F32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>2300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>2000</v>
       </c>
       <c r="J32" s="3">
         <v>2000</v>
@@ -2156,13 +2226,13 @@
         <v>2000</v>
       </c>
       <c r="M32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1800</v>
       </c>
       <c r="P32" s="3">
         <v>1800</v>
@@ -2171,48 +2241,51 @@
         <v>1800</v>
       </c>
       <c r="R32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="S32" s="3">
         <v>1700</v>
       </c>
       <c r="T32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1000</v>
-      </c>
-      <c r="K33" s="3">
-        <v>1100</v>
       </c>
       <c r="L33" s="3">
         <v>1100</v>
@@ -2230,25 +2303,28 @@
         <v>1100</v>
       </c>
       <c r="Q33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R33" s="3">
         <v>1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>900</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1000</v>
       </c>
       <c r="U33" s="3">
         <v>1000</v>
       </c>
       <c r="V33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,34 +2385,37 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1000</v>
-      </c>
-      <c r="K35" s="3">
-        <v>1100</v>
       </c>
       <c r="L35" s="3">
         <v>1100</v>
@@ -2354,92 +2433,98 @@
         <v>1100</v>
       </c>
       <c r="Q35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R35" s="3">
         <v>1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>900</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1000</v>
       </c>
       <c r="U35" s="3">
         <v>1000</v>
       </c>
       <c r="V35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,132 +2572,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E41" s="3">
         <v>8200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E42" s="3">
         <v>23600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>28400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>31500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>14000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>16500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>13100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>23300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>24900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>17900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>13200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>9000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>19700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>15500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>7100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2672,8 +2765,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2734,8 +2830,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2796,8 +2895,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,70 +3025,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>5400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5500</v>
-      </c>
-      <c r="L48" s="3">
-        <v>5700</v>
       </c>
       <c r="M48" s="3">
         <v>5700</v>
       </c>
       <c r="N48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O48" s="3">
         <v>5800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>6000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>6100</v>
       </c>
       <c r="Q48" s="3">
         <v>6100</v>
       </c>
       <c r="R48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="S48" s="3">
         <v>5600</v>
-      </c>
-      <c r="S48" s="3">
-        <v>5700</v>
       </c>
       <c r="T48" s="3">
         <v>5700</v>
       </c>
       <c r="U48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="V48" s="3">
         <v>5600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,8 +3285,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3221,17 +3341,20 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
+      <c r="T52" s="3">
+        <v>0</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,70 +3415,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>480800</v>
+      </c>
+      <c r="E54" s="3">
         <v>467700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>466200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>461700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>423600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>417100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>419000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>414500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>395600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>398200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>387800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>379800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>372100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>372700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>372300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>366900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>355200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>351800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>342500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,8 +3532,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3526,70 +3660,76 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E59" s="3">
         <v>3700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2900</v>
       </c>
       <c r="N59" s="3">
         <v>2900</v>
       </c>
       <c r="O59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="P59" s="3">
         <v>3300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2700</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2000</v>
       </c>
       <c r="U59" s="3">
         <v>2000</v>
       </c>
       <c r="V59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3650,8 +3790,11 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3712,8 +3855,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,70 +4115,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>428700</v>
+      </c>
+      <c r="E66" s="3">
         <v>415400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>415700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>412500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>378300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>370800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>373400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>369800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>352700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>356800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>348100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>339800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>332500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>333100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>333400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>329200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>318900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>314300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>304500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4224,16 +4392,19 @@
         <v>0</v>
       </c>
       <c r="T70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="U70" s="3">
         <v>2300</v>
       </c>
       <c r="V70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="W70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,70 +4465,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E72" s="3">
         <v>50600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>49100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>47700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>46500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>45700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>44700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>43700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>42900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>41200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>40300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>40000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>39300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>38400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>37200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,70 +4725,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>52200</v>
+      </c>
+      <c r="E76" s="3">
         <v>52300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>49200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>45300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>46300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>44700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>42800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>41400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>39800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>40000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>39600</v>
       </c>
       <c r="P76" s="3">
         <v>39600</v>
       </c>
       <c r="Q76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="R76" s="3">
         <v>38900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>37800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>36300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>35300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,101 +4855,107 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1000</v>
-      </c>
-      <c r="K81" s="3">
-        <v>1100</v>
       </c>
       <c r="L81" s="3">
         <v>1100</v>
@@ -4778,25 +4973,28 @@
         <v>1100</v>
       </c>
       <c r="Q81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R81" s="3">
         <v>1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>900</v>
-      </c>
-      <c r="T81" s="3">
-        <v>1000</v>
       </c>
       <c r="U81" s="3">
         <v>1000</v>
       </c>
       <c r="V81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,8 +5017,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4881,8 +5080,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,8 +5405,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5253,8 +5470,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,8 +5497,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5339,8 +5560,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,8 +5690,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5525,8 +5755,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,8 +6040,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5859,8 +6105,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5921,8 +6170,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5981,6 +6233,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4300</v>
       </c>
       <c r="F8" s="3">
         <v>4300</v>
@@ -774,43 +778,43 @@
         <v>4300</v>
       </c>
       <c r="H8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I8" s="3">
         <v>4500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4100</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4000</v>
       </c>
       <c r="O8" s="3">
         <v>4000</v>
       </c>
       <c r="P8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="Q8" s="3">
         <v>3700</v>
       </c>
       <c r="R8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="S8" s="3">
         <v>3800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3500</v>
-      </c>
-      <c r="T8" s="3">
-        <v>3300</v>
       </c>
       <c r="U8" s="3">
         <v>3300</v>
@@ -821,8 +825,11 @@
       <c r="W8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -886,8 +893,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +961,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +989,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1041,8 +1055,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1106,8 +1123,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,8 +1191,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1236,8 +1259,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1258,58 +1284,59 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>700</v>
-      </c>
-      <c r="F17" s="3">
-        <v>800</v>
       </c>
       <c r="G17" s="3">
         <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>1000</v>
       </c>
       <c r="J17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K17" s="3">
         <v>1100</v>
       </c>
       <c r="L17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M17" s="3">
         <v>1000</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
+        <v>800</v>
+      </c>
+      <c r="P17" s="3">
         <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
       </c>
       <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>100</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
@@ -1318,24 +1345,27 @@
         <v>500</v>
       </c>
       <c r="V17" s="3">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3500</v>
       </c>
       <c r="G18" s="3">
         <v>3500</v>
@@ -1344,52 +1374,55 @@
         <v>3500</v>
       </c>
       <c r="I18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J18" s="3">
         <v>3300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3400</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3200</v>
       </c>
       <c r="L18" s="3">
         <v>3200</v>
       </c>
       <c r="M18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N18" s="3">
         <v>3300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3100</v>
       </c>
       <c r="Q18" s="3">
         <v>3100</v>
       </c>
       <c r="R18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S18" s="3">
         <v>3700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2800</v>
       </c>
       <c r="U18" s="3">
         <v>2800</v>
       </c>
       <c r="V18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W18" s="3">
         <v>2700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1413,31 +1446,32 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-1400</v>
       </c>
       <c r="F20" s="3">
         <v>-1400</v>
       </c>
       <c r="G20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>-2000</v>
@@ -1449,13 +1483,13 @@
         <v>-2000</v>
       </c>
       <c r="N20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-1800</v>
       </c>
       <c r="Q20" s="3">
         <v>-1800</v>
@@ -1464,22 +1498,25 @@
         <v>-1800</v>
       </c>
       <c r="S20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="T20" s="3">
         <v>-1700</v>
       </c>
       <c r="U20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1543,8 +1580,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1608,46 +1648,49 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>2100</v>
       </c>
       <c r="F23" s="3">
         <v>2100</v>
       </c>
       <c r="G23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H23" s="3">
         <v>1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>1200</v>
       </c>
       <c r="L23" s="3">
         <v>1200</v>
       </c>
       <c r="M23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="N23" s="3">
         <v>1300</v>
       </c>
       <c r="O23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="P23" s="3">
         <v>1400</v>
@@ -1656,30 +1699,33 @@
         <v>1400</v>
       </c>
       <c r="R23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S23" s="3">
         <v>1900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1100</v>
-      </c>
-      <c r="U23" s="3">
-        <v>1300</v>
       </c>
       <c r="V23" s="3">
         <v>1300</v>
       </c>
       <c r="W23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
@@ -1691,7 +1737,7 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I24" s="3">
         <v>200</v>
@@ -1700,16 +1746,16 @@
         <v>200</v>
       </c>
       <c r="K24" s="3">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
-      </c>
-      <c r="N24" s="3">
-        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
@@ -1721,25 +1767,28 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>500</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
       </c>
       <c r="U24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>300</v>
       </c>
       <c r="W24" s="3">
+        <v>300</v>
+      </c>
+      <c r="X24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1803,37 +1852,40 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1100</v>
       </c>
       <c r="M26" s="3">
         <v>1100</v>
@@ -1851,54 +1903,57 @@
         <v>1100</v>
       </c>
       <c r="R26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S26" s="3">
         <v>1400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>900</v>
-      </c>
-      <c r="U26" s="3">
-        <v>1000</v>
       </c>
       <c r="V26" s="3">
         <v>1000</v>
       </c>
       <c r="W26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1100</v>
       </c>
       <c r="M27" s="3">
         <v>1100</v>
@@ -1916,25 +1971,28 @@
         <v>1100</v>
       </c>
       <c r="R27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S27" s="3">
         <v>1400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>900</v>
-      </c>
-      <c r="U27" s="3">
-        <v>1000</v>
       </c>
       <c r="V27" s="3">
         <v>1000</v>
       </c>
       <c r="W27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1998,8 +2056,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2063,8 +2124,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2128,8 +2192,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2193,31 +2260,34 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1400</v>
       </c>
       <c r="F32" s="3">
         <v>1400</v>
       </c>
       <c r="G32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>2000</v>
@@ -2229,13 +2299,13 @@
         <v>2000</v>
       </c>
       <c r="N32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2100</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1800</v>
       </c>
       <c r="Q32" s="3">
         <v>1800</v>
@@ -2244,51 +2314,54 @@
         <v>1800</v>
       </c>
       <c r="S32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="T32" s="3">
         <v>1700</v>
       </c>
       <c r="U32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
-      </c>
-      <c r="L33" s="3">
-        <v>1100</v>
       </c>
       <c r="M33" s="3">
         <v>1100</v>
@@ -2306,25 +2379,28 @@
         <v>1100</v>
       </c>
       <c r="R33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S33" s="3">
         <v>1400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>900</v>
-      </c>
-      <c r="U33" s="3">
-        <v>1000</v>
       </c>
       <c r="V33" s="3">
         <v>1000</v>
       </c>
       <c r="W33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2388,37 +2464,40 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
-      </c>
-      <c r="L35" s="3">
-        <v>1100</v>
       </c>
       <c r="M35" s="3">
         <v>1100</v>
@@ -2436,95 +2515,101 @@
         <v>1100</v>
       </c>
       <c r="R35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S35" s="3">
         <v>1400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>900</v>
-      </c>
-      <c r="U35" s="3">
-        <v>1000</v>
       </c>
       <c r="V35" s="3">
         <v>1000</v>
       </c>
       <c r="W35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2548,8 +2633,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2573,138 +2659,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E41" s="3">
         <v>5800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>8200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E42" s="3">
         <v>43400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>23600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>28400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>31500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>14000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>16500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>13100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>23300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>24900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>9000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>19700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>17300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>15500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>7100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2768,8 +2861,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2833,8 +2929,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2898,8 +2997,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2963,8 +3065,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3028,73 +3133,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E48" s="3">
         <v>9100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5500</v>
-      </c>
-      <c r="M48" s="3">
-        <v>5700</v>
       </c>
       <c r="N48" s="3">
         <v>5700</v>
       </c>
       <c r="O48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>6000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>6100</v>
       </c>
       <c r="R48" s="3">
         <v>6100</v>
       </c>
       <c r="S48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="T48" s="3">
         <v>5600</v>
-      </c>
-      <c r="T48" s="3">
-        <v>5700</v>
       </c>
       <c r="U48" s="3">
         <v>5700</v>
       </c>
       <c r="V48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="W48" s="3">
         <v>5600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3158,8 +3269,11 @@
       <c r="W49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3223,8 +3337,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3288,8 +3405,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3344,17 +3464,20 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W52" s="3">
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3418,73 +3541,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>486400</v>
+      </c>
+      <c r="E54" s="3">
         <v>480800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>467700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>466200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>461700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>423600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>417100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>419000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>414500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>395600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>398200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>387800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>379800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>372100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>372700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>372300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>366900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>355200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>351800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>342500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3508,8 +3637,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3533,8 +3663,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3598,8 +3729,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3663,73 +3797,79 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2900</v>
       </c>
       <c r="O59" s="3">
         <v>2900</v>
       </c>
       <c r="P59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>2000</v>
       </c>
       <c r="V59" s="3">
         <v>2000</v>
       </c>
       <c r="W59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3793,8 +3933,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3858,8 +4001,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3923,8 +4069,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3988,8 +4137,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4053,8 +4205,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4118,73 +4273,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>433500</v>
+      </c>
+      <c r="E66" s="3">
         <v>428700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>415400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>415700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>412500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>378300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>370800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>373400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>369800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>352700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>356800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>348100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>339800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>332500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>333100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>333400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>329200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>318900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>314300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>304500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4369,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4273,8 +4435,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4338,8 +4503,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4395,16 +4563,19 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="V70" s="3">
         <v>2300</v>
       </c>
       <c r="W70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="X70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4468,8 +4639,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4477,64 +4651,67 @@
         <v>51900</v>
       </c>
       <c r="E72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="F72" s="3">
         <v>50600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>49100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>47700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>46500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>45700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>44700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>43700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>42900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>41200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>40300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>40000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>39300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>38400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>37200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>35700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>34900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4598,8 +4775,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4663,8 +4843,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4728,73 +4911,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E76" s="3">
         <v>52200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>49200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>45300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>46300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>44700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>42800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>41400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>39800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>40000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>39600</v>
       </c>
       <c r="Q76" s="3">
         <v>39600</v>
       </c>
       <c r="R76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="S76" s="3">
         <v>38900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>37800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>36300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>35300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4858,107 +5047,113 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
-      </c>
-      <c r="L81" s="3">
-        <v>1100</v>
       </c>
       <c r="M81" s="3">
         <v>1100</v>
@@ -4976,25 +5171,28 @@
         <v>1100</v>
       </c>
       <c r="R81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S81" s="3">
         <v>1400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>900</v>
-      </c>
-      <c r="U81" s="3">
-        <v>1000</v>
       </c>
       <c r="V81" s="3">
         <v>1000</v>
       </c>
       <c r="W81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5018,8 +5216,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5083,8 +5282,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5148,8 +5350,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5213,8 +5418,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5278,8 +5486,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5343,8 +5554,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5408,8 +5622,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5473,8 +5690,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5498,8 +5718,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5563,8 +5784,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5628,8 +5852,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5693,8 +5920,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5758,8 +5988,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5783,8 +6016,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5848,8 +6082,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5913,8 +6150,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5978,8 +6218,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6043,8 +6286,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6108,8 +6354,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6173,8 +6422,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6236,6 +6488,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,114 +665,118 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
         <v>4000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4300</v>
       </c>
       <c r="G8" s="3">
         <v>4300</v>
@@ -781,43 +785,43 @@
         <v>4300</v>
       </c>
       <c r="I8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J8" s="3">
         <v>4500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4000</v>
       </c>
       <c r="P8" s="3">
         <v>4000</v>
       </c>
       <c r="Q8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="R8" s="3">
         <v>3700</v>
       </c>
       <c r="S8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="T8" s="3">
         <v>3800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>3300</v>
       </c>
       <c r="V8" s="3">
         <v>3300</v>
@@ -828,8 +832,11 @@
       <c r="X8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -896,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -990,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1126,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1194,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1262,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1285,61 +1311,62 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
-      </c>
-      <c r="G17" s="3">
-        <v>800</v>
       </c>
       <c r="H17" s="3">
         <v>800</v>
       </c>
       <c r="I17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J17" s="3">
         <v>1000</v>
       </c>
       <c r="K17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="L17" s="3">
         <v>1100</v>
       </c>
       <c r="M17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q17" s="3">
         <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
       </c>
       <c r="R17" s="3">
         <v>600</v>
       </c>
       <c r="S17" s="3">
+        <v>600</v>
+      </c>
+      <c r="T17" s="3">
         <v>100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>500</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
@@ -1348,13 +1375,16 @@
         <v>500</v>
       </c>
       <c r="W17" s="3">
+        <v>500</v>
+      </c>
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1362,13 +1392,13 @@
         <v>3800</v>
       </c>
       <c r="E18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F18" s="3">
         <v>3500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3500</v>
       </c>
       <c r="H18" s="3">
         <v>3500</v>
@@ -1377,52 +1407,55 @@
         <v>3500</v>
       </c>
       <c r="J18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="K18" s="3">
         <v>3300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3200</v>
       </c>
       <c r="M18" s="3">
         <v>3200</v>
       </c>
       <c r="N18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3100</v>
       </c>
       <c r="R18" s="3">
         <v>3100</v>
       </c>
       <c r="S18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T18" s="3">
         <v>3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>2800</v>
       </c>
       <c r="V18" s="3">
         <v>2800</v>
       </c>
       <c r="W18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X18" s="3">
         <v>2700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,34 +1480,35 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1400</v>
       </c>
       <c r="G20" s="3">
         <v>-1400</v>
       </c>
       <c r="H20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-2000</v>
       </c>
       <c r="L20" s="3">
         <v>-2000</v>
@@ -1486,13 +1520,13 @@
         <v>-2000</v>
       </c>
       <c r="O20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-1800</v>
       </c>
       <c r="R20" s="3">
         <v>-1800</v>
@@ -1501,22 +1535,25 @@
         <v>-1800</v>
       </c>
       <c r="T20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="U20" s="3">
         <v>-1700</v>
       </c>
       <c r="V20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1583,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1651,49 +1691,52 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>2100</v>
       </c>
       <c r="G23" s="3">
         <v>2100</v>
       </c>
       <c r="H23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I23" s="3">
         <v>1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>1200</v>
       </c>
       <c r="M23" s="3">
         <v>1200</v>
       </c>
       <c r="N23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="O23" s="3">
         <v>1300</v>
       </c>
       <c r="P23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="Q23" s="3">
         <v>1400</v>
@@ -1702,33 +1745,36 @@
         <v>1400</v>
       </c>
       <c r="S23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T23" s="3">
         <v>1900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1100</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1300</v>
       </c>
       <c r="W23" s="3">
         <v>1300</v>
       </c>
       <c r="X23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>300</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
@@ -1740,7 +1786,7 @@
         <v>300</v>
       </c>
       <c r="I24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>200</v>
@@ -1749,16 +1795,16 @@
         <v>200</v>
       </c>
       <c r="L24" s="3">
+        <v>200</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>200</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
@@ -1770,25 +1816,28 @@
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>500</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
       </c>
       <c r="V24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>300</v>
       </c>
       <c r="X24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1855,40 +1904,43 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1100</v>
       </c>
       <c r="N26" s="3">
         <v>1100</v>
@@ -1906,57 +1958,60 @@
         <v>1100</v>
       </c>
       <c r="S26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T26" s="3">
         <v>1400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>900</v>
-      </c>
-      <c r="V26" s="3">
-        <v>1000</v>
       </c>
       <c r="W26" s="3">
         <v>1000</v>
       </c>
       <c r="X26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1100</v>
       </c>
       <c r="N27" s="3">
         <v>1100</v>
@@ -1974,25 +2029,28 @@
         <v>1100</v>
       </c>
       <c r="S27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T27" s="3">
         <v>1400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>900</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1000</v>
       </c>
       <c r="W27" s="3">
         <v>1000</v>
       </c>
       <c r="X27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2059,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2127,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2195,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2263,34 +2330,37 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>2200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1400</v>
       </c>
       <c r="G32" s="3">
         <v>1400</v>
       </c>
       <c r="H32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>2000</v>
       </c>
       <c r="L32" s="3">
         <v>2000</v>
@@ -2302,13 +2372,13 @@
         <v>2000</v>
       </c>
       <c r="O32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>1800</v>
       </c>
       <c r="R32" s="3">
         <v>1800</v>
@@ -2317,54 +2387,57 @@
         <v>1800</v>
       </c>
       <c r="T32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="U32" s="3">
         <v>1700</v>
       </c>
       <c r="V32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1100</v>
       </c>
       <c r="N33" s="3">
         <v>1100</v>
@@ -2382,25 +2455,28 @@
         <v>1100</v>
       </c>
       <c r="S33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T33" s="3">
         <v>1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>900</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1000</v>
       </c>
       <c r="W33" s="3">
         <v>1000</v>
       </c>
       <c r="X33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2467,40 +2543,43 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1100</v>
       </c>
       <c r="N35" s="3">
         <v>1100</v>
@@ -2518,98 +2597,104 @@
         <v>1100</v>
       </c>
       <c r="S35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T35" s="3">
         <v>1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>900</v>
-      </c>
-      <c r="V35" s="3">
-        <v>1000</v>
       </c>
       <c r="W35" s="3">
         <v>1000</v>
       </c>
       <c r="X35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2634,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2660,144 +2746,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>8200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>9900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>49500</v>
+      </c>
+      <c r="E42" s="3">
         <v>53100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>43400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>23600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>28400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>31500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>14000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>16500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>13100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>23300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>21100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>24900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>9000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>16600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>19700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>16900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>17300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>15500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>7100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2864,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2932,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3000,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3068,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3136,76 +3241,82 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E48" s="3">
         <v>8900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>5700</v>
       </c>
       <c r="O48" s="3">
         <v>5700</v>
       </c>
       <c r="P48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>6100</v>
       </c>
       <c r="S48" s="3">
         <v>6100</v>
       </c>
       <c r="T48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="U48" s="3">
         <v>5600</v>
-      </c>
-      <c r="U48" s="3">
-        <v>5700</v>
       </c>
       <c r="V48" s="3">
         <v>5700</v>
       </c>
       <c r="W48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="X48" s="3">
         <v>5600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3272,8 +3383,11 @@
       <c r="X49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3340,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3408,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3467,17 +3587,20 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
+      <c r="V52" s="3">
+        <v>0</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3544,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>500000</v>
+      </c>
+      <c r="E54" s="3">
         <v>486400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>480800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>467700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>466200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>461700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>423600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>417100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>419000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>414500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>395600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>398200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>387800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>379800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>372100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>372700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>372300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>366900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>355200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>351800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>342500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3638,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3664,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3732,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3800,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3809,67 +3946,70 @@
         <v>3900</v>
       </c>
       <c r="E59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2900</v>
       </c>
       <c r="P59" s="3">
         <v>2900</v>
       </c>
       <c r="Q59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="R59" s="3">
         <v>3300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2700</v>
-      </c>
-      <c r="V59" s="3">
-        <v>2000</v>
       </c>
       <c r="W59" s="3">
         <v>2000</v>
       </c>
       <c r="X59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3936,8 +4076,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4004,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4072,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4140,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4208,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4276,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>446300</v>
+      </c>
+      <c r="E66" s="3">
         <v>433500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>428700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>415400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>415700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>412500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>378300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>370800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>373400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>369800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>352700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>356800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>348100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>339800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>332500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>333100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>333400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>329200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>318900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>314300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>304500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4370,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4438,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4506,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4566,16 +4734,19 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="W70" s="3">
         <v>2300</v>
       </c>
       <c r="X70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Y70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4642,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>51900</v>
+        <v>53000</v>
       </c>
       <c r="E72" s="3">
         <v>51900</v>
       </c>
       <c r="F72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="G72" s="3">
         <v>50600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>49100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>47700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>46500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>45700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>44700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>43700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>42900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>41200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>40300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>39300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>38400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>37200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>35700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>34900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4778,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4846,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4914,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>53800</v>
+      </c>
+      <c r="E76" s="3">
         <v>53000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>49200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>45300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>46300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>45600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>44700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>42800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>41400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>39800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>40000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>39600</v>
       </c>
       <c r="R76" s="3">
         <v>39600</v>
       </c>
       <c r="S76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="T76" s="3">
         <v>38900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>37800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>36300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>35300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5050,113 +5239,119 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>1100</v>
       </c>
       <c r="N81" s="3">
         <v>1100</v>
@@ -5174,25 +5369,28 @@
         <v>1100</v>
       </c>
       <c r="S81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T81" s="3">
         <v>1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>900</v>
-      </c>
-      <c r="V81" s="3">
-        <v>1000</v>
       </c>
       <c r="W81" s="3">
         <v>1000</v>
       </c>
       <c r="X81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5217,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5285,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5353,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5421,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5489,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5557,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5625,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5693,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5719,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5787,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5855,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5923,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5991,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6017,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6085,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6153,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6221,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6289,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6357,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6425,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6491,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,121 +665,124 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4300</v>
       </c>
       <c r="H8" s="3">
         <v>4300</v>
@@ -788,43 +791,43 @@
         <v>4300</v>
       </c>
       <c r="J8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K8" s="3">
         <v>4500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>4000</v>
       </c>
       <c r="Q8" s="3">
         <v>4000</v>
       </c>
       <c r="R8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="S8" s="3">
         <v>3700</v>
       </c>
       <c r="T8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="U8" s="3">
         <v>3800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3500</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3300</v>
       </c>
       <c r="W8" s="3">
         <v>3300</v>
@@ -835,8 +838,11 @@
       <c r="Y8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +912,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +986,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1016,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1088,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1162,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1236,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1310,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1337,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1321,55 +1347,55 @@
         <v>400</v>
       </c>
       <c r="E17" s="3">
+        <v>400</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>800</v>
       </c>
       <c r="I17" s="3">
         <v>800</v>
       </c>
       <c r="J17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K17" s="3">
         <v>1000</v>
       </c>
       <c r="L17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="M17" s="3">
         <v>1100</v>
       </c>
       <c r="N17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O17" s="3">
         <v>1000</v>
-      </c>
-      <c r="O17" s="3">
-        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>800</v>
       </c>
       <c r="Q17" s="3">
+        <v>800</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
         <v>100</v>
-      </c>
-      <c r="U17" s="3">
-        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>500</v>
@@ -1378,30 +1404,33 @@
         <v>500</v>
       </c>
       <c r="X17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E18" s="3">
         <v>3800</v>
       </c>
       <c r="F18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G18" s="3">
         <v>3500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3500</v>
       </c>
       <c r="I18" s="3">
         <v>3500</v>
@@ -1410,52 +1439,55 @@
         <v>3500</v>
       </c>
       <c r="K18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L18" s="3">
         <v>3300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3200</v>
       </c>
       <c r="N18" s="3">
         <v>3200</v>
       </c>
       <c r="O18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3100</v>
       </c>
       <c r="S18" s="3">
         <v>3100</v>
       </c>
       <c r="T18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U18" s="3">
         <v>3700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3000</v>
-      </c>
-      <c r="V18" s="3">
-        <v>2800</v>
       </c>
       <c r="W18" s="3">
         <v>2800</v>
       </c>
       <c r="X18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Y18" s="3">
         <v>2700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,37 +1513,38 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-1400</v>
       </c>
       <c r="H20" s="3">
         <v>-1400</v>
       </c>
       <c r="I20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-1900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-2000</v>
       </c>
       <c r="M20" s="3">
         <v>-2000</v>
@@ -1523,13 +1556,13 @@
         <v>-2000</v>
       </c>
       <c r="P20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-1800</v>
       </c>
       <c r="S20" s="3">
         <v>-1800</v>
@@ -1538,22 +1571,25 @@
         <v>-1800</v>
       </c>
       <c r="U20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="V20" s="3">
         <v>-1700</v>
       </c>
       <c r="W20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1659,11 @@
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,52 +1733,55 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>2100</v>
       </c>
       <c r="H23" s="3">
         <v>2100</v>
       </c>
       <c r="I23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J23" s="3">
         <v>1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1200</v>
       </c>
       <c r="N23" s="3">
         <v>1200</v>
       </c>
       <c r="O23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="P23" s="3">
         <v>1300</v>
       </c>
       <c r="Q23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="R23" s="3">
         <v>1400</v>
@@ -1748,36 +1790,39 @@
         <v>1400</v>
       </c>
       <c r="T23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U23" s="3">
         <v>1900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1300</v>
       </c>
       <c r="X23" s="3">
         <v>1300</v>
       </c>
       <c r="Y23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>300</v>
       </c>
       <c r="G24" s="3">
         <v>300</v>
@@ -1789,7 +1834,7 @@
         <v>300</v>
       </c>
       <c r="J24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>200</v>
@@ -1798,16 +1843,16 @@
         <v>200</v>
       </c>
       <c r="M24" s="3">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>200</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
@@ -1819,25 +1864,28 @@
         <v>200</v>
       </c>
       <c r="T24" s="3">
+        <v>200</v>
+      </c>
+      <c r="U24" s="3">
         <v>500</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
       <c r="W24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X24" s="3">
         <v>300</v>
       </c>
       <c r="Y24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,43 +1955,46 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>1100</v>
       </c>
       <c r="O26" s="3">
         <v>1100</v>
@@ -1961,60 +2012,63 @@
         <v>1100</v>
       </c>
       <c r="T26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U26" s="3">
         <v>1400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>900</v>
-      </c>
-      <c r="W26" s="3">
-        <v>1000</v>
       </c>
       <c r="X26" s="3">
         <v>1000</v>
       </c>
       <c r="Y26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>1100</v>
       </c>
       <c r="O27" s="3">
         <v>1100</v>
@@ -2032,25 +2086,28 @@
         <v>1100</v>
       </c>
       <c r="T27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U27" s="3">
         <v>1400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>900</v>
-      </c>
-      <c r="W27" s="3">
-        <v>1000</v>
       </c>
       <c r="X27" s="3">
         <v>1000</v>
       </c>
       <c r="Y27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2177,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2251,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2325,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,37 +2399,40 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E32" s="3">
         <v>2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1400</v>
       </c>
       <c r="H32" s="3">
         <v>1400</v>
       </c>
       <c r="I32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J32" s="3">
         <v>1900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1800</v>
-      </c>
-      <c r="L32" s="3">
-        <v>2000</v>
       </c>
       <c r="M32" s="3">
         <v>2000</v>
@@ -2375,13 +2444,13 @@
         <v>2000</v>
       </c>
       <c r="P32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>1800</v>
       </c>
       <c r="S32" s="3">
         <v>1800</v>
@@ -2390,57 +2459,60 @@
         <v>1800</v>
       </c>
       <c r="U32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="V32" s="3">
         <v>1700</v>
       </c>
       <c r="W32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X32" s="3">
         <v>1500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>1100</v>
       </c>
       <c r="O33" s="3">
         <v>1100</v>
@@ -2458,25 +2530,28 @@
         <v>1100</v>
       </c>
       <c r="T33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U33" s="3">
         <v>1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>1000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>900</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1000</v>
       </c>
       <c r="X33" s="3">
         <v>1000</v>
       </c>
       <c r="Y33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,43 +2621,46 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>1100</v>
       </c>
       <c r="O35" s="3">
         <v>1100</v>
@@ -2600,101 +2678,107 @@
         <v>1100</v>
       </c>
       <c r="T35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U35" s="3">
         <v>1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>1000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>900</v>
-      </c>
-      <c r="W35" s="3">
-        <v>1000</v>
       </c>
       <c r="X35" s="3">
         <v>1000</v>
       </c>
       <c r="Y35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2804,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,150 +2832,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E41" s="3">
         <v>6600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>8200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>9900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>66000</v>
+      </c>
+      <c r="E42" s="3">
         <v>49500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>53100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>43400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>23600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>28400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>31500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>14000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>16500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>13100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>21100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>24900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>9000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>16600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>19700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>16900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>15500</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>7100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3052,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3126,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3200,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3173,8 +3274,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,79 +3348,85 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E48" s="3">
         <v>8800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>5700</v>
       </c>
       <c r="P48" s="3">
         <v>5700</v>
       </c>
       <c r="Q48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>6100</v>
       </c>
       <c r="T48" s="3">
         <v>6100</v>
       </c>
       <c r="U48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="V48" s="3">
         <v>5600</v>
-      </c>
-      <c r="V48" s="3">
-        <v>5700</v>
       </c>
       <c r="W48" s="3">
         <v>5700</v>
       </c>
       <c r="X48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="Y48" s="3">
         <v>5600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3496,11 @@
       <c r="Y49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3570,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3644,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3590,17 +3709,20 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
+      <c r="W52" s="3">
+        <v>0</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3792,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>521600</v>
+      </c>
+      <c r="E54" s="3">
         <v>500000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>486400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>480800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>467700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>466200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>461700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>423600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>417100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>419000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>414500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>395600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>398200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>387800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>379800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>372100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>372700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>372300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>366900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>355200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>351800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>342500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3896,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3924,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,8 +3996,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,79 +4070,85 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E59" s="3">
         <v>3900</v>
       </c>
       <c r="F59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
-      </c>
-      <c r="P59" s="3">
-        <v>2900</v>
       </c>
       <c r="Q59" s="3">
         <v>2900</v>
       </c>
       <c r="R59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="S59" s="3">
         <v>3300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2700</v>
-      </c>
-      <c r="W59" s="3">
-        <v>2000</v>
       </c>
       <c r="X59" s="3">
         <v>2000</v>
       </c>
       <c r="Y59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,8 +4218,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4292,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4366,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4440,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4514,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4588,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>467300</v>
+      </c>
+      <c r="E66" s="3">
         <v>446300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>433500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>428700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>415400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>415700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>412500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>378300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>370800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>373400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>369800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>352700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>356800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>348100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>339800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>332500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>333100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>333400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>329200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>318900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>314300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>304500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4692,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4764,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4838,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4737,16 +4904,19 @@
         <v>0</v>
       </c>
       <c r="W70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="X70" s="3">
         <v>2300</v>
       </c>
       <c r="Y70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Z70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +4986,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E72" s="3">
         <v>53000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>51900</v>
       </c>
       <c r="F72" s="3">
         <v>51900</v>
       </c>
       <c r="G72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="H72" s="3">
         <v>50600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>49100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>47700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>46500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>45700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>44700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>43700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>42900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>42100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>41200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>40300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>40000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>39300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>38400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>37200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>36400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>35700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>34900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5134,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5208,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5282,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E76" s="3">
         <v>53800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>53000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>49200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>45300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>46300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>45600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>44700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>42800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>41400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>39800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>40000</v>
-      </c>
-      <c r="R76" s="3">
-        <v>39600</v>
       </c>
       <c r="S76" s="3">
         <v>39600</v>
       </c>
       <c r="T76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="U76" s="3">
         <v>38900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>37800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>36300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>35300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>35800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,119 +5430,125 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>1100</v>
       </c>
       <c r="O81" s="3">
         <v>1100</v>
@@ -5372,25 +5566,28 @@
         <v>1100</v>
       </c>
       <c r="T81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U81" s="3">
         <v>1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>1000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>900</v>
-      </c>
-      <c r="W81" s="3">
-        <v>1000</v>
       </c>
       <c r="X81" s="3">
         <v>1000</v>
       </c>
       <c r="Y81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5613,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5685,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5759,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5833,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5907,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5981,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6055,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6129,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6159,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6231,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6305,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6379,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6453,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6483,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6555,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6629,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6703,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6777,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6851,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6925,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6997,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,136 +665,144 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4300</v>
       </c>
       <c r="J8" s="3">
         <v>4300</v>
       </c>
       <c r="K8" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="L8" s="3">
         <v>4300</v>
@@ -806,34 +814,34 @@
         <v>4300</v>
       </c>
       <c r="O8" s="3">
+        <v>4500</v>
+      </c>
+      <c r="P8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>3700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>3700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>3800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>3500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>3300</v>
       </c>
       <c r="Y8" s="3">
         <v>3300</v>
@@ -841,8 +849,14 @@
       <c r="Z8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>3300</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -915,8 +929,14 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -989,8 +1009,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1017,8 +1043,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1091,8 +1119,14 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1165,8 +1199,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1279,14 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1313,8 +1359,14 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1338,156 +1390,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E17" s="3">
         <v>400</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>400</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>100</v>
-      </c>
-      <c r="V17" s="3">
-        <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>500</v>
       </c>
       <c r="X17" s="3">
         <v>500</v>
       </c>
       <c r="Y17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>3700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G18" s="3">
         <v>3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>3800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3600</v>
       </c>
       <c r="I18" s="3">
         <v>3500</v>
       </c>
       <c r="J18" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K18" s="3">
         <v>3500</v>
       </c>
       <c r="L18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="N18" s="3">
         <v>3300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>3200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>3200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3300</v>
       </c>
       <c r="Q18" s="3">
         <v>3200</v>
       </c>
       <c r="R18" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T18" s="3">
         <v>3500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>3100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>3100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>3000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>2800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>2700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,8 +1580,10 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1523,34 +1591,34 @@
         <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F20" s="3">
         <v>-2200</v>
       </c>
       <c r="G20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-2300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-2000</v>
       </c>
       <c r="O20" s="3">
         <v>-2000</v>
@@ -1559,37 +1627,43 @@
         <v>-2000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-1800</v>
       </c>
       <c r="U20" s="3">
         <v>-1800</v>
       </c>
       <c r="V20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="W20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="X20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-1700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-1400</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1662,8 +1736,14 @@
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1736,82 +1816,94 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
-        <v>1800</v>
-      </c>
       <c r="F23" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G23" s="3">
         <v>1800</v>
       </c>
       <c r="H23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J23" s="3">
         <v>2100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1400</v>
       </c>
       <c r="T23" s="3">
         <v>1400</v>
       </c>
       <c r="U23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W23" s="3">
         <v>1900</v>
-      </c>
-      <c r="V23" s="3">
-        <v>1300</v>
-      </c>
-      <c r="W23" s="3">
-        <v>1100</v>
       </c>
       <c r="X23" s="3">
         <v>1300</v>
       </c>
       <c r="Y23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1819,7 +1911,7 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>200</v>
@@ -1828,7 +1920,7 @@
         <v>300</v>
       </c>
       <c r="H24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I24" s="3">
         <v>300</v>
@@ -1837,16 +1929,16 @@
         <v>300</v>
       </c>
       <c r="K24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>200</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
@@ -1858,7 +1950,7 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>200</v>
@@ -1867,25 +1959,31 @@
         <v>200</v>
       </c>
       <c r="U24" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
       </c>
       <c r="W24" s="3">
+        <v>500</v>
+      </c>
+      <c r="X24" s="3">
         <v>200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1958,49 +2056,55 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1500</v>
       </c>
       <c r="F26" s="3">
         <v>1400</v>
       </c>
       <c r="G26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1000</v>
-      </c>
-      <c r="O26" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>1100</v>
       </c>
       <c r="Q26" s="3">
         <v>1100</v>
@@ -2015,66 +2119,72 @@
         <v>1100</v>
       </c>
       <c r="U26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W26" s="3">
         <v>1400</v>
-      </c>
-      <c r="V26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W26" s="3">
-        <v>900</v>
       </c>
       <c r="X26" s="3">
         <v>1000</v>
       </c>
       <c r="Y26" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1500</v>
       </c>
       <c r="F27" s="3">
         <v>1400</v>
       </c>
       <c r="G27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1000</v>
-      </c>
-      <c r="O27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>1100</v>
       </c>
       <c r="Q27" s="3">
         <v>1100</v>
@@ -2089,25 +2199,31 @@
         <v>1100</v>
       </c>
       <c r="U27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W27" s="3">
         <v>1400</v>
-      </c>
-      <c r="V27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W27" s="3">
-        <v>900</v>
       </c>
       <c r="X27" s="3">
         <v>1000</v>
       </c>
       <c r="Y27" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2180,8 +2296,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2254,8 +2376,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2328,8 +2456,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2402,8 +2536,14 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2411,34 +2551,34 @@
         <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="F32" s="3">
         <v>2200</v>
       </c>
       <c r="G32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>2300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>1800</v>
-      </c>
-      <c r="M32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>2000</v>
       </c>
       <c r="O32" s="3">
         <v>2000</v>
@@ -2447,78 +2587,84 @@
         <v>2000</v>
       </c>
       <c r="Q32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S32" s="3">
         <v>1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>2100</v>
-      </c>
-      <c r="S32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T32" s="3">
-        <v>1800</v>
       </c>
       <c r="U32" s="3">
         <v>1800</v>
       </c>
       <c r="V32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>1700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>1500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>1400</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1500</v>
       </c>
       <c r="F33" s="3">
         <v>1400</v>
       </c>
       <c r="G33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1000</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>1100</v>
       </c>
       <c r="Q33" s="3">
         <v>1100</v>
@@ -2533,25 +2679,31 @@
         <v>1100</v>
       </c>
       <c r="U33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W33" s="3">
         <v>1400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W33" s="3">
-        <v>900</v>
       </c>
       <c r="X33" s="3">
         <v>1000</v>
       </c>
       <c r="Y33" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2624,49 +2776,55 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1500</v>
       </c>
       <c r="F35" s="3">
         <v>1400</v>
       </c>
       <c r="G35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1000</v>
-      </c>
-      <c r="O35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>1100</v>
       </c>
       <c r="Q35" s="3">
         <v>1100</v>
@@ -2681,104 +2839,116 @@
         <v>1100</v>
       </c>
       <c r="U35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W35" s="3">
         <v>1400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W35" s="3">
-        <v>900</v>
       </c>
       <c r="X35" s="3">
         <v>1000</v>
       </c>
       <c r="Y35" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2805,8 +2975,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2833,156 +3005,170 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F41" s="3">
         <v>6200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>6600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>8200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>5300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>9900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>6300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>5100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>5200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>49700</v>
+      </c>
+      <c r="E42" s="3">
+        <v>63100</v>
+      </c>
+      <c r="F42" s="3">
         <v>66000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>49500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>53100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>43400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>23600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>28400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>31500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>14000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>16500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>13100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>23300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>21100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>24900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>17900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>13200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>9000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>16600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>19700</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>16900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>17300</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>15500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>7100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3055,8 +3241,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3129,8 +3321,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3203,8 +3401,14 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3277,8 +3481,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3351,82 +3561,94 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F48" s="3">
         <v>8700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>8800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>8900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>9100</v>
-      </c>
-      <c r="H48" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>9400</v>
       </c>
       <c r="J48" s="3">
         <v>9300</v>
       </c>
       <c r="K48" s="3">
+        <v>9400</v>
+      </c>
+      <c r="L48" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M48" s="3">
         <v>8500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>5500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>5700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>6000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>6100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>6100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>5600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>5700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>5700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>5600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3499,8 +3721,14 @@
       <c r="Z49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3573,8 +3801,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3647,8 +3881,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3712,17 +3952,23 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z52" s="3">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3795,82 +4041,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>534900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>532300</v>
+      </c>
+      <c r="F54" s="3">
         <v>521600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>500000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>486400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>480800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>467700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>466200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>461700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>423600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>417100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>419000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>414500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>395600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>398200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>387800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>379800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>372100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>372700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>372300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>366900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>355200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>351800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>342500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3897,8 +4155,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3925,8 +4185,10 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3999,8 +4261,14 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4073,82 +4341,94 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F59" s="3">
         <v>4000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>3700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>4100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>3700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>2900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>2900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>3300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>3000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4221,8 +4501,14 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4295,8 +4581,14 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4369,8 +4661,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4443,8 +4741,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4517,8 +4821,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4591,82 +4901,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>488300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>482200</v>
+      </c>
+      <c r="F66" s="3">
         <v>467300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>446300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>433500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>428700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>415400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>415700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>412500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>378300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>370800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>373400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>369800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>352700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>356800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>348100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>339800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>332500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>333100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>333400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>329200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>318900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>314300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>304500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4693,8 +5015,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4767,8 +5091,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4841,8 +5171,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4907,16 +5243,22 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>2300</v>
       </c>
-      <c r="Y70" s="3">
+      <c r="AA70" s="3">
         <v>2300</v>
       </c>
-      <c r="Z70" s="3">
+      <c r="AB70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4989,82 +5331,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>55200</v>
+      </c>
+      <c r="F72" s="3">
         <v>54100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>53000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>51900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>51900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>50600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>49100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>47700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>46500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>45700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>44700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>43700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>42900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>42100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>41200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>40300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>40000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>39300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>38400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>37200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>36400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>35700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>34900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5137,8 +5491,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5211,8 +5571,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5285,82 +5651,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>50100</v>
+      </c>
+      <c r="F76" s="3">
         <v>54300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>53800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>53000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>52200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>52300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>50500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>49200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>45300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>46300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>45600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>44700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>42800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>41400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>39800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>40000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>39600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>39600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>38900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>37800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>36300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>35300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>35800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5433,128 +5811,140 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1500</v>
       </c>
       <c r="F81" s="3">
         <v>1400</v>
       </c>
       <c r="G81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1000</v>
-      </c>
-      <c r="O81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>1100</v>
       </c>
       <c r="Q81" s="3">
         <v>1100</v>
@@ -5569,25 +5959,31 @@
         <v>1100</v>
       </c>
       <c r="U81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W81" s="3">
         <v>1400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W81" s="3">
-        <v>900</v>
       </c>
       <c r="X81" s="3">
         <v>1000</v>
       </c>
       <c r="Y81" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5614,8 +6010,10 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5688,8 +6086,14 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5762,8 +6166,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5836,8 +6246,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5910,8 +6326,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5984,8 +6406,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6058,8 +6486,14 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6132,8 +6566,14 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6160,8 +6600,10 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6234,8 +6676,14 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6308,8 +6756,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6382,8 +6836,14 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6456,8 +6916,14 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6484,8 +6950,10 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6558,8 +7026,14 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6632,8 +7106,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6706,8 +7186,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6780,8 +7266,14 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6854,8 +7346,14 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6928,8 +7426,14 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7000,6 +7504,12 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,145 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E8" s="3">
         <v>4500</v>
-      </c>
-      <c r="E8" s="3">
-        <v>4100</v>
       </c>
       <c r="F8" s="3">
         <v>4100</v>
       </c>
       <c r="G8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4300</v>
       </c>
       <c r="K8" s="3">
         <v>4300</v>
@@ -808,43 +812,43 @@
         <v>4300</v>
       </c>
       <c r="M8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N8" s="3">
         <v>4500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4000</v>
       </c>
       <c r="T8" s="3">
         <v>4000</v>
       </c>
       <c r="U8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="V8" s="3">
         <v>3700</v>
       </c>
       <c r="W8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="X8" s="3">
         <v>3800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>3500</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>3300</v>
       </c>
       <c r="Z8" s="3">
         <v>3300</v>
@@ -855,8 +859,11 @@
       <c r="AB8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -935,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1045,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1125,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1205,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1285,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1392,16 +1418,17 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>800</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
       </c>
       <c r="F17" s="3">
         <v>400</v>
@@ -1410,55 +1437,55 @@
         <v>400</v>
       </c>
       <c r="H17" s="3">
+        <v>400</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
-      </c>
-      <c r="K17" s="3">
-        <v>800</v>
       </c>
       <c r="L17" s="3">
         <v>800</v>
       </c>
       <c r="M17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>1000</v>
       </c>
       <c r="O17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="P17" s="3">
         <v>1100</v>
       </c>
       <c r="Q17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R17" s="3">
         <v>1000</v>
-      </c>
-      <c r="R17" s="3">
-        <v>800</v>
       </c>
       <c r="S17" s="3">
         <v>800</v>
       </c>
       <c r="T17" s="3">
+        <v>800</v>
+      </c>
+      <c r="U17" s="3">
         <v>500</v>
-      </c>
-      <c r="U17" s="3">
-        <v>600</v>
       </c>
       <c r="V17" s="3">
         <v>600</v>
       </c>
       <c r="W17" s="3">
+        <v>600</v>
+      </c>
+      <c r="X17" s="3">
         <v>100</v>
-      </c>
-      <c r="X17" s="3">
-        <v>500</v>
       </c>
       <c r="Y17" s="3">
         <v>500</v>
@@ -1467,39 +1494,42 @@
         <v>500</v>
       </c>
       <c r="AA17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E18" s="3">
         <v>3900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>3700</v>
       </c>
       <c r="F18" s="3">
         <v>3700</v>
       </c>
       <c r="G18" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="H18" s="3">
         <v>3800</v>
       </c>
       <c r="I18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J18" s="3">
         <v>3500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>3600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>3500</v>
       </c>
       <c r="L18" s="3">
         <v>3500</v>
@@ -1508,52 +1538,55 @@
         <v>3500</v>
       </c>
       <c r="N18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="O18" s="3">
         <v>3300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>3200</v>
       </c>
       <c r="Q18" s="3">
         <v>3200</v>
       </c>
       <c r="R18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S18" s="3">
         <v>3300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>3200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3500</v>
-      </c>
-      <c r="U18" s="3">
-        <v>3100</v>
       </c>
       <c r="V18" s="3">
         <v>3100</v>
       </c>
       <c r="W18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="X18" s="3">
         <v>3700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>3000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>2800</v>
       </c>
       <c r="Z18" s="3">
         <v>2800</v>
       </c>
       <c r="AA18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AB18" s="3">
         <v>2700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1582,13 +1615,14 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="E20" s="3">
         <v>-2200</v>
@@ -1597,31 +1631,31 @@
         <v>-2200</v>
       </c>
       <c r="G20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-1400</v>
       </c>
       <c r="K20" s="3">
         <v>-1400</v>
       </c>
       <c r="L20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="M20" s="3">
         <v>-1900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-2000</v>
       </c>
       <c r="P20" s="3">
         <v>-2000</v>
@@ -1633,13 +1667,13 @@
         <v>-2000</v>
       </c>
       <c r="S20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-1800</v>
       </c>
       <c r="V20" s="3">
         <v>-1800</v>
@@ -1648,22 +1682,25 @@
         <v>-1800</v>
       </c>
       <c r="X20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Y20" s="3">
         <v>-1700</v>
       </c>
       <c r="Z20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1742,8 +1779,11 @@
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1822,61 +1862,64 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1500</v>
       </c>
       <c r="F23" s="3">
         <v>1500</v>
       </c>
       <c r="G23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H23" s="3">
         <v>1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>2100</v>
       </c>
       <c r="K23" s="3">
         <v>2100</v>
       </c>
       <c r="L23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M23" s="3">
         <v>1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>1200</v>
       </c>
       <c r="Q23" s="3">
         <v>1200</v>
       </c>
       <c r="R23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="S23" s="3">
         <v>1300</v>
       </c>
       <c r="T23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="U23" s="3">
         <v>1400</v>
@@ -1885,45 +1928,48 @@
         <v>1400</v>
       </c>
       <c r="W23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X23" s="3">
         <v>1900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>1300</v>
       </c>
       <c r="AA23" s="3">
         <v>1300</v>
       </c>
       <c r="AB23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AC23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>300</v>
       </c>
       <c r="J24" s="3">
         <v>300</v>
@@ -1935,7 +1981,7 @@
         <v>300</v>
       </c>
       <c r="M24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N24" s="3">
         <v>200</v>
@@ -1944,16 +1990,16 @@
         <v>200</v>
       </c>
       <c r="P24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>200</v>
       </c>
       <c r="T24" s="3">
         <v>200</v>
@@ -1965,25 +2011,28 @@
         <v>200</v>
       </c>
       <c r="W24" s="3">
+        <v>200</v>
+      </c>
+      <c r="X24" s="3">
         <v>500</v>
-      </c>
-      <c r="X24" s="3">
-        <v>200</v>
       </c>
       <c r="Y24" s="3">
         <v>200</v>
       </c>
       <c r="Z24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA24" s="3">
         <v>300</v>
       </c>
       <c r="AB24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2062,52 +2111,55 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1400</v>
       </c>
       <c r="F26" s="3">
         <v>1400</v>
       </c>
       <c r="G26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>1100</v>
       </c>
       <c r="R26" s="3">
         <v>1100</v>
@@ -2125,69 +2177,72 @@
         <v>1100</v>
       </c>
       <c r="W26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X26" s="3">
         <v>1400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>900</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>1000</v>
       </c>
       <c r="AA26" s="3">
         <v>1000</v>
       </c>
       <c r="AB26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1400</v>
       </c>
       <c r="F27" s="3">
         <v>1400</v>
       </c>
       <c r="G27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1100</v>
       </c>
       <c r="R27" s="3">
         <v>1100</v>
@@ -2205,25 +2260,28 @@
         <v>1100</v>
       </c>
       <c r="W27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X27" s="3">
         <v>1400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>900</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>1000</v>
       </c>
       <c r="AA27" s="3">
         <v>1000</v>
       </c>
       <c r="AB27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2382,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2462,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2542,13 +2609,16 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E32" s="3">
         <v>2200</v>
@@ -2557,31 +2627,31 @@
         <v>2200</v>
       </c>
       <c r="G32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
-      </c>
-      <c r="J32" s="3">
-        <v>1400</v>
       </c>
       <c r="K32" s="3">
         <v>1400</v>
       </c>
       <c r="L32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M32" s="3">
         <v>1900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1800</v>
-      </c>
-      <c r="O32" s="3">
-        <v>2000</v>
       </c>
       <c r="P32" s="3">
         <v>2000</v>
@@ -2593,13 +2663,13 @@
         <v>2000</v>
       </c>
       <c r="S32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T32" s="3">
         <v>1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2100</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1800</v>
       </c>
       <c r="V32" s="3">
         <v>1800</v>
@@ -2608,66 +2678,69 @@
         <v>1800</v>
       </c>
       <c r="X32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Y32" s="3">
         <v>1700</v>
       </c>
       <c r="Z32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA32" s="3">
         <v>1500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>1400</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1400</v>
       </c>
       <c r="F33" s="3">
         <v>1400</v>
       </c>
       <c r="G33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1100</v>
       </c>
       <c r="R33" s="3">
         <v>1100</v>
@@ -2685,25 +2758,28 @@
         <v>1100</v>
       </c>
       <c r="W33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X33" s="3">
         <v>1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>900</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>1000</v>
       </c>
       <c r="AA33" s="3">
         <v>1000</v>
       </c>
       <c r="AB33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2782,52 +2858,55 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1400</v>
       </c>
       <c r="F35" s="3">
         <v>1400</v>
       </c>
       <c r="G35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1100</v>
       </c>
       <c r="R35" s="3">
         <v>1100</v>
@@ -2845,110 +2924,116 @@
         <v>1100</v>
       </c>
       <c r="W35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X35" s="3">
         <v>1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>900</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>1000</v>
       </c>
       <c r="AA35" s="3">
         <v>1000</v>
       </c>
       <c r="AB35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2977,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3007,168 +3093,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E41" s="3">
         <v>7100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>9900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>6300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5200</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E42" s="3">
         <v>49700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>63100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>66000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>49500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>53100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>43400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>23600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>28400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>31500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>14000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>16500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>13100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>23300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>24900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>13200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>9000</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>16600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>19700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>16900</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>17300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>15500</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>7100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3247,8 +3340,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3327,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3407,8 +3506,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3487,8 +3589,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3567,88 +3672,94 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E48" s="3">
         <v>8500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>9100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>8500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>5700</v>
       </c>
       <c r="S48" s="3">
         <v>5700</v>
       </c>
       <c r="T48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="U48" s="3">
         <v>5800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>6000</v>
-      </c>
-      <c r="V48" s="3">
-        <v>6100</v>
       </c>
       <c r="W48" s="3">
         <v>6100</v>
       </c>
       <c r="X48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Y48" s="3">
         <v>5600</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>5700</v>
       </c>
       <c r="Z48" s="3">
         <v>5700</v>
       </c>
       <c r="AA48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="AB48" s="3">
         <v>5600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3727,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3807,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3887,8 +4004,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3958,17 +4078,20 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
+      <c r="Z52" s="3">
+        <v>0</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4047,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>527600</v>
+      </c>
+      <c r="E54" s="3">
         <v>534900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>532300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>521600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>500000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>486400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>480800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>467700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>466200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>461700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>423600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>417100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>419000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>414500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>395600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>398200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>387800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>379800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>372100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>372700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>372300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>366900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>355200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>351800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>342500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4157,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4187,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4267,8 +4398,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4347,88 +4481,94 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>3900</v>
       </c>
       <c r="H59" s="3">
         <v>3900</v>
       </c>
       <c r="I59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3100</v>
-      </c>
-      <c r="S59" s="3">
-        <v>2900</v>
       </c>
       <c r="T59" s="3">
         <v>2900</v>
       </c>
       <c r="U59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="V59" s="3">
         <v>3300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2700</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>2000</v>
       </c>
       <c r="AA59" s="3">
         <v>2000</v>
       </c>
       <c r="AB59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4507,8 +4647,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4587,8 +4730,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4667,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4747,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4827,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4907,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>484100</v>
+      </c>
+      <c r="E66" s="3">
         <v>488300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>482200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>467300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>446300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>433500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>428700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>415400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>415700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>412500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>378300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>370800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>373400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>369800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>352700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>356800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>348100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>339800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>332500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>333100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>333400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>329200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>318900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>314300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>304500</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5017,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5097,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5177,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5249,16 +5417,19 @@
         <v>0</v>
       </c>
       <c r="Z70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="AA70" s="3">
         <v>2300</v>
       </c>
       <c r="AB70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AC70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5337,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E72" s="3">
         <v>56400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>55200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>54100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>53000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>51900</v>
       </c>
       <c r="I72" s="3">
         <v>51900</v>
       </c>
       <c r="J72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="K72" s="3">
         <v>50600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>47700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>46500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>45700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>44700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>43700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>42900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>41200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>40300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>39300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>38400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>37200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>36400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>35700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>34900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5497,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5577,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5657,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>43400</v>
+      </c>
+      <c r="E76" s="3">
         <v>46600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>50100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>54300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>53800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>53000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>50500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>45300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>46300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>42800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>41400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>39800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>40000</v>
-      </c>
-      <c r="U76" s="3">
-        <v>39600</v>
       </c>
       <c r="V76" s="3">
         <v>39600</v>
       </c>
       <c r="W76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="X76" s="3">
         <v>38900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>37800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>36300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>35300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>35800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5817,137 +6006,143 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>1400</v>
       </c>
       <c r="F81" s="3">
         <v>1400</v>
       </c>
       <c r="G81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1100</v>
       </c>
       <c r="R81" s="3">
         <v>1100</v>
@@ -5965,25 +6160,28 @@
         <v>1100</v>
       </c>
       <c r="W81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X81" s="3">
         <v>1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>900</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>1000</v>
       </c>
       <c r="AA81" s="3">
         <v>1000</v>
       </c>
       <c r="AB81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6012,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6092,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6172,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6252,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6332,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6412,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6492,8 +6706,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6572,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6602,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6682,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6762,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6842,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6922,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6952,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7032,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7112,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7192,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7272,8 +7515,11 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7352,8 +7598,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7432,8 +7681,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7510,6 +7762,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,151 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
         <v>4900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>4100</v>
       </c>
       <c r="G8" s="3">
         <v>4100</v>
       </c>
       <c r="H8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4300</v>
       </c>
       <c r="L8" s="3">
         <v>4300</v>
@@ -815,43 +818,43 @@
         <v>4300</v>
       </c>
       <c r="N8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O8" s="3">
         <v>4500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>4000</v>
       </c>
       <c r="U8" s="3">
         <v>4000</v>
       </c>
       <c r="V8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="W8" s="3">
         <v>3700</v>
       </c>
       <c r="X8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>3500</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>3300</v>
       </c>
       <c r="AA8" s="3">
         <v>3300</v>
@@ -862,8 +865,11 @@
       <c r="AC8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +951,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1037,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1071,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1155,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1241,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1308,8 +1327,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1413,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,19 +1444,20 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1440,55 +1466,55 @@
         <v>400</v>
       </c>
       <c r="I17" s="3">
+        <v>400</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>800</v>
       </c>
       <c r="M17" s="3">
         <v>800</v>
       </c>
       <c r="N17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>1000</v>
       </c>
       <c r="P17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="Q17" s="3">
         <v>1100</v>
       </c>
       <c r="R17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S17" s="3">
         <v>1000</v>
-      </c>
-      <c r="S17" s="3">
-        <v>800</v>
       </c>
       <c r="T17" s="3">
         <v>800</v>
       </c>
       <c r="U17" s="3">
+        <v>800</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>600</v>
       </c>
       <c r="W17" s="3">
         <v>600</v>
       </c>
       <c r="X17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y17" s="3">
         <v>100</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>500</v>
       </c>
       <c r="Z17" s="3">
         <v>500</v>
@@ -1497,42 +1523,45 @@
         <v>500</v>
       </c>
       <c r="AB17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC17" s="3">
         <v>600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E18" s="3">
         <v>4100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>3900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>3700</v>
       </c>
       <c r="G18" s="3">
         <v>3700</v>
       </c>
       <c r="H18" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I18" s="3">
         <v>3800</v>
       </c>
       <c r="J18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K18" s="3">
         <v>3500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>3600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>3500</v>
       </c>
       <c r="M18" s="3">
         <v>3500</v>
@@ -1541,52 +1570,55 @@
         <v>3500</v>
       </c>
       <c r="O18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P18" s="3">
         <v>3300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>3200</v>
       </c>
       <c r="R18" s="3">
         <v>3200</v>
       </c>
       <c r="S18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T18" s="3">
         <v>3300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>3200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3500</v>
-      </c>
-      <c r="V18" s="3">
-        <v>3100</v>
       </c>
       <c r="W18" s="3">
         <v>3100</v>
       </c>
       <c r="X18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Y18" s="3">
         <v>3700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>3000</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>2800</v>
       </c>
       <c r="AA18" s="3">
         <v>2800</v>
       </c>
       <c r="AB18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AC18" s="3">
         <v>2700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,16 +1648,17 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-2200</v>
       </c>
       <c r="F20" s="3">
         <v>-2200</v>
@@ -1634,31 +1667,31 @@
         <v>-2200</v>
       </c>
       <c r="H20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1400</v>
       </c>
       <c r="L20" s="3">
         <v>-1400</v>
       </c>
       <c r="M20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N20" s="3">
         <v>-1900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-2000</v>
       </c>
       <c r="Q20" s="3">
         <v>-2000</v>
@@ -1670,13 +1703,13 @@
         <v>-2000</v>
       </c>
       <c r="T20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U20" s="3">
         <v>-1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-1800</v>
       </c>
       <c r="W20" s="3">
         <v>-1800</v>
@@ -1685,22 +1718,25 @@
         <v>-1800</v>
       </c>
       <c r="Y20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="Z20" s="3">
         <v>-1700</v>
       </c>
       <c r="AA20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,8 +1818,11 @@
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,64 +1904,67 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E23" s="3">
         <v>1900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1500</v>
       </c>
       <c r="G23" s="3">
         <v>1500</v>
       </c>
       <c r="H23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I23" s="3">
         <v>1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>2100</v>
       </c>
       <c r="L23" s="3">
         <v>2100</v>
       </c>
       <c r="M23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N23" s="3">
         <v>1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1200</v>
       </c>
       <c r="R23" s="3">
         <v>1200</v>
       </c>
       <c r="S23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="T23" s="3">
         <v>1300</v>
       </c>
       <c r="U23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="V23" s="3">
         <v>1400</v>
@@ -1931,25 +1973,28 @@
         <v>1400</v>
       </c>
       <c r="X23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y23" s="3">
         <v>1900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>1300</v>
       </c>
       <c r="AB23" s="3">
         <v>1300</v>
       </c>
       <c r="AC23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1957,22 +2002,22 @@
         <v>300</v>
       </c>
       <c r="E24" s="3">
+        <v>300</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>300</v>
       </c>
       <c r="K24" s="3">
         <v>300</v>
@@ -1984,7 +2029,7 @@
         <v>300</v>
       </c>
       <c r="N24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O24" s="3">
         <v>200</v>
@@ -1993,16 +2038,16 @@
         <v>200</v>
       </c>
       <c r="Q24" s="3">
+        <v>200</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>200</v>
       </c>
       <c r="U24" s="3">
         <v>200</v>
@@ -2014,25 +2059,28 @@
         <v>200</v>
       </c>
       <c r="X24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y24" s="3">
         <v>500</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>200</v>
       </c>
       <c r="Z24" s="3">
         <v>200</v>
       </c>
       <c r="AA24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB24" s="3">
         <v>300</v>
       </c>
       <c r="AC24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,55 +2162,58 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1400</v>
       </c>
       <c r="G26" s="3">
         <v>1400</v>
       </c>
       <c r="H26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1100</v>
       </c>
       <c r="S26" s="3">
         <v>1100</v>
@@ -2180,72 +2231,75 @@
         <v>1100</v>
       </c>
       <c r="X26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>1400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>1000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>900</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>1000</v>
       </c>
       <c r="AB26" s="3">
         <v>1000</v>
       </c>
       <c r="AC26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1400</v>
       </c>
       <c r="G27" s="3">
         <v>1400</v>
       </c>
       <c r="H27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1100</v>
       </c>
       <c r="S27" s="3">
         <v>1100</v>
@@ -2263,25 +2317,28 @@
         <v>1100</v>
       </c>
       <c r="X27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>1400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>1000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>900</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>1000</v>
       </c>
       <c r="AB27" s="3">
         <v>1000</v>
       </c>
       <c r="AC27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2420,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2506,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2592,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,16 +2678,19 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>2200</v>
       </c>
       <c r="F32" s="3">
         <v>2200</v>
@@ -2630,31 +2699,31 @@
         <v>2200</v>
       </c>
       <c r="H32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1400</v>
       </c>
       <c r="L32" s="3">
         <v>1400</v>
       </c>
       <c r="M32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N32" s="3">
         <v>1900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1800</v>
-      </c>
-      <c r="P32" s="3">
-        <v>2000</v>
       </c>
       <c r="Q32" s="3">
         <v>2000</v>
@@ -2666,13 +2735,13 @@
         <v>2000</v>
       </c>
       <c r="T32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U32" s="3">
         <v>1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2100</v>
-      </c>
-      <c r="V32" s="3">
-        <v>1800</v>
       </c>
       <c r="W32" s="3">
         <v>1800</v>
@@ -2681,69 +2750,72 @@
         <v>1800</v>
       </c>
       <c r="Y32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="Z32" s="3">
         <v>1700</v>
       </c>
       <c r="AA32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB32" s="3">
         <v>1500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>1400</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1400</v>
       </c>
       <c r="G33" s="3">
         <v>1400</v>
       </c>
       <c r="H33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1100</v>
       </c>
       <c r="S33" s="3">
         <v>1100</v>
@@ -2761,25 +2833,28 @@
         <v>1100</v>
       </c>
       <c r="X33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y33" s="3">
         <v>1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>900</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>1000</v>
       </c>
       <c r="AB33" s="3">
         <v>1000</v>
       </c>
       <c r="AC33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,55 +2936,58 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1400</v>
       </c>
       <c r="G35" s="3">
         <v>1400</v>
       </c>
       <c r="H35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1100</v>
       </c>
       <c r="S35" s="3">
         <v>1100</v>
@@ -2927,113 +3005,119 @@
         <v>1100</v>
       </c>
       <c r="X35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y35" s="3">
         <v>1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>900</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>1000</v>
       </c>
       <c r="AB35" s="3">
         <v>1000</v>
       </c>
       <c r="AC35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3147,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,174 +3179,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E41" s="3">
         <v>5800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>9900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>6300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>5100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5200</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E42" s="3">
         <v>12100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>49700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>63100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>66000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>49500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>53100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>43400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>23600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>28400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>31500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>14000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>16500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>13100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>23300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>21100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>24900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>17900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>13200</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>9000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>16600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>19700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>16900</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>17300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>15500</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>7100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3343,8 +3435,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3521,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3509,8 +3607,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3592,8 +3693,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3779,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3684,82 +3791,85 @@
         <v>8400</v>
       </c>
       <c r="E48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="F48" s="3">
         <v>8500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>8600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>8500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5500</v>
-      </c>
-      <c r="S48" s="3">
-        <v>5700</v>
       </c>
       <c r="T48" s="3">
         <v>5700</v>
       </c>
       <c r="U48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="V48" s="3">
         <v>5800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>6000</v>
-      </c>
-      <c r="W48" s="3">
-        <v>6100</v>
       </c>
       <c r="X48" s="3">
         <v>6100</v>
       </c>
       <c r="Y48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="Z48" s="3">
         <v>5600</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>5700</v>
       </c>
       <c r="AA48" s="3">
         <v>5700</v>
       </c>
       <c r="AB48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="AC48" s="3">
         <v>5600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3841,8 +3951,11 @@
       <c r="AC49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4037,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4123,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4081,17 +4200,20 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>5</v>
+      <c r="AA52" s="3">
+        <v>0</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4295,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>538300</v>
+      </c>
+      <c r="E54" s="3">
         <v>527600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>534900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>532300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>521600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>500000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>486400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>480800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>467700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>466200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>461700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>423600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>417100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>419000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>414500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>395600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>398200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>387800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>379800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>372100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>372700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>372300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>366900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>355200</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>351800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>342500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4415,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,8 +4447,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4401,8 +4531,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4484,8 +4617,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4493,82 +4629,85 @@
         <v>3400</v>
       </c>
       <c r="E59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F59" s="3">
         <v>3800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>3900</v>
       </c>
       <c r="I59" s="3">
         <v>3900</v>
       </c>
       <c r="J59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3100</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2900</v>
       </c>
       <c r="U59" s="3">
         <v>2900</v>
       </c>
       <c r="V59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="W59" s="3">
         <v>3300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2700</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>2000</v>
       </c>
       <c r="AB59" s="3">
         <v>2000</v>
       </c>
       <c r="AC59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4650,8 +4789,11 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4733,8 +4875,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +4961,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5047,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5133,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5219,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>492700</v>
+      </c>
+      <c r="E66" s="3">
         <v>484100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>488300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>482200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>467300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>446300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>433500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>428700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>415400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>415700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>412500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>378300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>370800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>373400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>369800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>352700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>356800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>348100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>339800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>332500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>333100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>333400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>329200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>318900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>314300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>304500</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5339,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5423,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5509,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5420,16 +5587,19 @@
         <v>0</v>
       </c>
       <c r="AA70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="AB70" s="3">
         <v>2300</v>
       </c>
       <c r="AC70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AD70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5681,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>58900</v>
+      </c>
+      <c r="E72" s="3">
         <v>57700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>56400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>55200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>54100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>53000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>51900</v>
       </c>
       <c r="J72" s="3">
         <v>51900</v>
       </c>
       <c r="K72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="L72" s="3">
         <v>50600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>49100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>47700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>46500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>45700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>44700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>43700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>42900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>41200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>40300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>39300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>38400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>37200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>36400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>35700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>34900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5853,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5939,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6025,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E76" s="3">
         <v>43400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>46600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>50100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>54300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>53800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>52200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>50500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>45300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>46300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>42800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>41400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>39800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>40000</v>
-      </c>
-      <c r="V76" s="3">
-        <v>39600</v>
       </c>
       <c r="W76" s="3">
         <v>39600</v>
       </c>
       <c r="X76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="Y76" s="3">
         <v>38900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>37800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>36300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>35300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>35800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,143 +6197,149 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>1400</v>
       </c>
       <c r="G81" s="3">
         <v>1400</v>
       </c>
       <c r="H81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1100</v>
       </c>
       <c r="S81" s="3">
         <v>1100</v>
@@ -6163,25 +6357,28 @@
         <v>1100</v>
       </c>
       <c r="X81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y81" s="3">
         <v>1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>900</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>1000</v>
       </c>
       <c r="AB81" s="3">
         <v>1000</v>
       </c>
       <c r="AC81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AD81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6408,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6294,8 +6492,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6578,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6664,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6750,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6836,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +6922,11 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6792,8 +7008,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7042,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6906,8 +7126,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7212,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7298,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7155,8 +7384,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7418,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7502,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7588,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7674,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +7760,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7601,8 +7846,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,8 +7932,11 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7765,6 +8016,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,158 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
         <v>5300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>4100</v>
       </c>
       <c r="H8" s="3">
         <v>4100</v>
       </c>
       <c r="I8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4300</v>
       </c>
       <c r="M8" s="3">
         <v>4300</v>
@@ -821,43 +825,43 @@
         <v>4300</v>
       </c>
       <c r="O8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P8" s="3">
         <v>4500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4100</v>
-      </c>
-      <c r="U8" s="3">
-        <v>4000</v>
       </c>
       <c r="V8" s="3">
         <v>4000</v>
       </c>
       <c r="W8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="X8" s="3">
         <v>3700</v>
       </c>
       <c r="Y8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="Z8" s="3">
         <v>3800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>3500</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>3300</v>
       </c>
       <c r="AB8" s="3">
         <v>3300</v>
@@ -868,8 +872,11 @@
       <c r="AD8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -954,8 +961,11 @@
       <c r="AD9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1040,8 +1050,11 @@
       <c r="AD10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1085,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1158,8 +1172,11 @@
       <c r="AD12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1244,8 +1261,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1330,8 +1350,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1416,8 +1439,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1445,22 +1471,23 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>400</v>
       </c>
       <c r="H17" s="3">
         <v>400</v>
@@ -1469,55 +1496,55 @@
         <v>400</v>
       </c>
       <c r="J17" s="3">
+        <v>400</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>800</v>
       </c>
       <c r="N17" s="3">
         <v>800</v>
       </c>
       <c r="O17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="P17" s="3">
         <v>1000</v>
       </c>
       <c r="Q17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="R17" s="3">
         <v>1100</v>
       </c>
       <c r="S17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T17" s="3">
         <v>1000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>800</v>
       </c>
       <c r="U17" s="3">
         <v>800</v>
       </c>
       <c r="V17" s="3">
+        <v>800</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
-      </c>
-      <c r="W17" s="3">
-        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>600</v>
       </c>
       <c r="Y17" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z17" s="3">
         <v>100</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>500</v>
       </c>
       <c r="AA17" s="3">
         <v>500</v>
@@ -1526,45 +1553,48 @@
         <v>500</v>
       </c>
       <c r="AC17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>4200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>3900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>3700</v>
       </c>
       <c r="H18" s="3">
         <v>3700</v>
       </c>
       <c r="I18" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J18" s="3">
         <v>3800</v>
       </c>
       <c r="K18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="L18" s="3">
         <v>3500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>3600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>3500</v>
       </c>
       <c r="N18" s="3">
         <v>3500</v>
@@ -1573,52 +1603,55 @@
         <v>3500</v>
       </c>
       <c r="P18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>3300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3400</v>
-      </c>
-      <c r="R18" s="3">
-        <v>3200</v>
       </c>
       <c r="S18" s="3">
         <v>3200</v>
       </c>
       <c r="T18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="U18" s="3">
         <v>3300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>3200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3500</v>
-      </c>
-      <c r="W18" s="3">
-        <v>3100</v>
       </c>
       <c r="X18" s="3">
         <v>3100</v>
       </c>
       <c r="Y18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>3700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>3000</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>2800</v>
       </c>
       <c r="AB18" s="3">
         <v>2800</v>
       </c>
       <c r="AC18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AD18" s="3">
         <v>2700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1649,19 +1682,20 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2200</v>
       </c>
       <c r="G20" s="3">
         <v>-2200</v>
@@ -1670,31 +1704,31 @@
         <v>-2200</v>
       </c>
       <c r="I20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1400</v>
       </c>
       <c r="M20" s="3">
         <v>-1400</v>
       </c>
       <c r="N20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O20" s="3">
         <v>-1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-2000</v>
       </c>
       <c r="R20" s="3">
         <v>-2000</v>
@@ -1706,13 +1740,13 @@
         <v>-2000</v>
       </c>
       <c r="U20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V20" s="3">
         <v>-1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-1800</v>
       </c>
       <c r="X20" s="3">
         <v>-1800</v>
@@ -1721,22 +1755,25 @@
         <v>-1800</v>
       </c>
       <c r="Z20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="AA20" s="3">
         <v>-1700</v>
       </c>
       <c r="AB20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1821,8 +1858,11 @@
       <c r="AD21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1907,67 +1947,70 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1700</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1500</v>
       </c>
       <c r="H23" s="3">
         <v>1500</v>
       </c>
       <c r="I23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J23" s="3">
         <v>1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>2100</v>
       </c>
       <c r="M23" s="3">
         <v>2100</v>
       </c>
       <c r="N23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O23" s="3">
         <v>1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1400</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1200</v>
       </c>
       <c r="S23" s="3">
         <v>1200</v>
       </c>
       <c r="T23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="U23" s="3">
         <v>1300</v>
       </c>
       <c r="V23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="W23" s="3">
         <v>1400</v>
@@ -1976,51 +2019,54 @@
         <v>1400</v>
       </c>
       <c r="Y23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z23" s="3">
         <v>1900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>1300</v>
       </c>
       <c r="AC23" s="3">
         <v>1300</v>
       </c>
       <c r="AD23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>300</v>
       </c>
       <c r="F24" s="3">
+        <v>300</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>300</v>
       </c>
       <c r="L24" s="3">
         <v>300</v>
@@ -2032,7 +2078,7 @@
         <v>300</v>
       </c>
       <c r="O24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P24" s="3">
         <v>200</v>
@@ -2041,16 +2087,16 @@
         <v>200</v>
       </c>
       <c r="R24" s="3">
+        <v>200</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>200</v>
       </c>
       <c r="V24" s="3">
         <v>200</v>
@@ -2062,25 +2108,28 @@
         <v>200</v>
       </c>
       <c r="Y24" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z24" s="3">
         <v>500</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>200</v>
       </c>
       <c r="AA24" s="3">
         <v>200</v>
       </c>
       <c r="AB24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC24" s="3">
         <v>300</v>
       </c>
       <c r="AD24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2165,58 +2214,61 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>1400</v>
       </c>
       <c r="H26" s="3">
         <v>1400</v>
       </c>
       <c r="I26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1000</v>
-      </c>
-      <c r="S26" s="3">
-        <v>1100</v>
       </c>
       <c r="T26" s="3">
         <v>1100</v>
@@ -2234,75 +2286,78 @@
         <v>1100</v>
       </c>
       <c r="Y26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>1400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>900</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>1000</v>
       </c>
       <c r="AC26" s="3">
         <v>1000</v>
       </c>
       <c r="AD26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>1400</v>
       </c>
       <c r="H27" s="3">
         <v>1400</v>
       </c>
       <c r="I27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1000</v>
-      </c>
-      <c r="S27" s="3">
-        <v>1100</v>
       </c>
       <c r="T27" s="3">
         <v>1100</v>
@@ -2320,25 +2375,28 @@
         <v>1100</v>
       </c>
       <c r="Y27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>1400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>900</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>1000</v>
       </c>
       <c r="AC27" s="3">
         <v>1000</v>
       </c>
       <c r="AD27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2423,8 +2481,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2509,8 +2570,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2595,8 +2659,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2681,19 +2748,22 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>2300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2200</v>
       </c>
       <c r="G32" s="3">
         <v>2200</v>
@@ -2702,31 +2772,31 @@
         <v>2200</v>
       </c>
       <c r="I32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1600</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1400</v>
       </c>
       <c r="M32" s="3">
         <v>1400</v>
       </c>
       <c r="N32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O32" s="3">
         <v>1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1800</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>2000</v>
       </c>
       <c r="R32" s="3">
         <v>2000</v>
@@ -2738,13 +2808,13 @@
         <v>2000</v>
       </c>
       <c r="U32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V32" s="3">
         <v>1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2100</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1800</v>
       </c>
       <c r="X32" s="3">
         <v>1800</v>
@@ -2753,72 +2823,75 @@
         <v>1800</v>
       </c>
       <c r="Z32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="AA32" s="3">
         <v>1700</v>
       </c>
       <c r="AB32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AC32" s="3">
         <v>1500</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>1400</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1400</v>
       </c>
       <c r="H33" s="3">
         <v>1400</v>
       </c>
       <c r="I33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1000</v>
-      </c>
-      <c r="S33" s="3">
-        <v>1100</v>
       </c>
       <c r="T33" s="3">
         <v>1100</v>
@@ -2836,25 +2909,28 @@
         <v>1100</v>
       </c>
       <c r="Y33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>1400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>900</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>1000</v>
       </c>
       <c r="AC33" s="3">
         <v>1000</v>
       </c>
       <c r="AD33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2939,58 +3015,61 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1400</v>
       </c>
       <c r="H35" s="3">
         <v>1400</v>
       </c>
       <c r="I35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1000</v>
-      </c>
-      <c r="S35" s="3">
-        <v>1100</v>
       </c>
       <c r="T35" s="3">
         <v>1100</v>
@@ -3008,116 +3087,122 @@
         <v>1100</v>
       </c>
       <c r="Y35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>1400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>900</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>1000</v>
       </c>
       <c r="AC35" s="3">
         <v>1000</v>
       </c>
       <c r="AD35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3148,8 +3233,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3180,180 +3266,187 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>15000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>7100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>5800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>8400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>9900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>6300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5200</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>4300</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E42" s="3">
         <v>3500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>12100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>49700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>63100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>66000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>49500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>53100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>43400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>23600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>28400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>31500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>14000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>16500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>13100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>23300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>21100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>24900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>17900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>13200</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>9000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>16600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>19700</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>16900</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>17300</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>15500</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>7100</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3438,8 +3531,11 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3524,8 +3620,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3610,8 +3709,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3696,8 +3798,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3782,94 +3887,100 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>8400</v>
+        <v>8200</v>
       </c>
       <c r="E48" s="3">
         <v>8400</v>
       </c>
       <c r="F48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="G48" s="3">
         <v>8500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>8600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>8500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5500</v>
-      </c>
-      <c r="T48" s="3">
-        <v>5700</v>
       </c>
       <c r="U48" s="3">
         <v>5700</v>
       </c>
       <c r="V48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="W48" s="3">
         <v>5800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>6000</v>
-      </c>
-      <c r="X48" s="3">
-        <v>6100</v>
       </c>
       <c r="Y48" s="3">
         <v>6100</v>
       </c>
       <c r="Z48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="AA48" s="3">
         <v>5600</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>5700</v>
       </c>
       <c r="AB48" s="3">
         <v>5700</v>
       </c>
       <c r="AC48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="AD48" s="3">
         <v>5600</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3954,8 +4065,11 @@
       <c r="AD49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4040,8 +4154,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4126,8 +4243,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4203,17 +4323,20 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>5</v>
+      <c r="AB52" s="3">
+        <v>0</v>
       </c>
       <c r="AC52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AD52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4298,94 +4421,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>542900</v>
+      </c>
+      <c r="E54" s="3">
         <v>538300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>527600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>534900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>532300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>521600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>500000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>486400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>480800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>467700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>466200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>461700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>423600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>417100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>419000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>414500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>395600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>398200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>387800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>379800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>372100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>372700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>372300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>366900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>355200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>351800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>342500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4416,8 +4545,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4448,8 +4578,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4534,8 +4665,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4620,94 +4754,100 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="E59" s="3">
         <v>3400</v>
       </c>
       <c r="F59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G59" s="3">
         <v>3800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>3900</v>
       </c>
       <c r="J59" s="3">
         <v>3900</v>
       </c>
       <c r="K59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>4200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3100</v>
-      </c>
-      <c r="U59" s="3">
-        <v>2900</v>
       </c>
       <c r="V59" s="3">
         <v>2900</v>
       </c>
       <c r="W59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X59" s="3">
         <v>3300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2300</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2700</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>2000</v>
       </c>
       <c r="AC59" s="3">
         <v>2000</v>
       </c>
       <c r="AD59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AE59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4792,8 +4932,11 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4878,8 +5021,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4964,8 +5110,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5050,8 +5199,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5136,8 +5288,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5222,94 +5377,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>494800</v>
+      </c>
+      <c r="E66" s="3">
         <v>492700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>484100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>488300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>482200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>467300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>446300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>433500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>428700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>415400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>415700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>412500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>378300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>370800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>373400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>369800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>352700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>356800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>348100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>339800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>332500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>333100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>333400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>329200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>318900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>314300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>304500</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5340,8 +5501,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5426,8 +5588,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5512,8 +5677,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5590,16 +5758,19 @@
         <v>0</v>
       </c>
       <c r="AB70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="AC70" s="3">
         <v>2300</v>
       </c>
       <c r="AD70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AE70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5684,94 +5855,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>59800</v>
+      </c>
+      <c r="E72" s="3">
         <v>58900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>57700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>56400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>55200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>54100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>53000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>51900</v>
       </c>
       <c r="K72" s="3">
         <v>51900</v>
       </c>
       <c r="L72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="M72" s="3">
         <v>50600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>49100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>47700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>46500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>45700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>44700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>43700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>42900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>41200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>40300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>40000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>39300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>38400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>37200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>36400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>35700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>34900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5856,8 +6033,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5942,8 +6122,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6028,94 +6211,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>48100</v>
+      </c>
+      <c r="E76" s="3">
         <v>45600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>43400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>46600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>50100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>54300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>53800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>50500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>49200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>45300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>46300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>45600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>42800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>41400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>39800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>40000</v>
-      </c>
-      <c r="W76" s="3">
-        <v>39600</v>
       </c>
       <c r="X76" s="3">
         <v>39600</v>
       </c>
       <c r="Y76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="Z76" s="3">
         <v>38900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>37800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>36300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>35300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>35800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6200,149 +6389,155 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>1400</v>
       </c>
       <c r="H81" s="3">
         <v>1400</v>
       </c>
       <c r="I81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1000</v>
-      </c>
-      <c r="S81" s="3">
-        <v>1100</v>
       </c>
       <c r="T81" s="3">
         <v>1100</v>
@@ -6360,25 +6555,28 @@
         <v>1100</v>
       </c>
       <c r="Y81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>1400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>900</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>1000</v>
       </c>
       <c r="AC81" s="3">
         <v>1000</v>
       </c>
       <c r="AD81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AE81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6409,8 +6607,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6495,8 +6694,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6581,8 +6783,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6667,8 +6872,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6753,8 +6961,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6839,8 +7050,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6925,8 +7139,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7011,8 +7228,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7043,8 +7263,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7129,8 +7350,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7215,8 +7439,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7301,8 +7528,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7387,8 +7617,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7419,8 +7652,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7505,8 +7739,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7591,8 +7828,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7677,8 +7917,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7763,8 +8006,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7849,8 +8095,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7935,8 +8184,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8019,6 +8271,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/FFWC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>FFWC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,161 +665,165 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>4100</v>
       </c>
       <c r="I8" s="3">
         <v>4100</v>
       </c>
       <c r="J8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4300</v>
       </c>
       <c r="N8" s="3">
         <v>4300</v>
@@ -828,43 +832,43 @@
         <v>4300</v>
       </c>
       <c r="P8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>4200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>4000</v>
       </c>
       <c r="W8" s="3">
         <v>4000</v>
       </c>
       <c r="X8" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="Y8" s="3">
         <v>3700</v>
       </c>
       <c r="Z8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="AA8" s="3">
         <v>3800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>3500</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>3300</v>
       </c>
       <c r="AC8" s="3">
         <v>3300</v>
@@ -875,8 +879,11 @@
       <c r="AE8" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -964,8 +971,11 @@
       <c r="AE9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1053,8 +1063,11 @@
       <c r="AE10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1086,8 +1099,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1175,8 +1189,11 @@
       <c r="AE12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,8 +1281,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1353,8 +1373,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1442,8 +1465,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1472,25 +1498,26 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>400</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1499,55 +1526,55 @@
         <v>400</v>
       </c>
       <c r="K17" s="3">
+        <v>400</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>700</v>
-      </c>
-      <c r="N17" s="3">
-        <v>800</v>
       </c>
       <c r="O17" s="3">
         <v>800</v>
       </c>
       <c r="P17" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="Q17" s="3">
         <v>1000</v>
       </c>
       <c r="R17" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="S17" s="3">
         <v>1100</v>
       </c>
       <c r="T17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U17" s="3">
         <v>1000</v>
-      </c>
-      <c r="U17" s="3">
-        <v>800</v>
       </c>
       <c r="V17" s="3">
         <v>800</v>
       </c>
       <c r="W17" s="3">
+        <v>800</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>600</v>
       </c>
       <c r="Y17" s="3">
         <v>600</v>
       </c>
       <c r="Z17" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>100</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>500</v>
       </c>
       <c r="AB17" s="3">
         <v>500</v>
@@ -1556,48 +1583,51 @@
         <v>500</v>
       </c>
       <c r="AD17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE17" s="3">
         <v>600</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E18" s="3">
         <v>3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3900</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3700</v>
       </c>
       <c r="I18" s="3">
         <v>3700</v>
       </c>
       <c r="J18" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="K18" s="3">
         <v>3800</v>
       </c>
       <c r="L18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="M18" s="3">
         <v>3500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>3500</v>
       </c>
       <c r="O18" s="3">
         <v>3500</v>
@@ -1606,52 +1636,55 @@
         <v>3500</v>
       </c>
       <c r="Q18" s="3">
+        <v>3500</v>
+      </c>
+      <c r="R18" s="3">
         <v>3300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>3400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>3200</v>
       </c>
       <c r="T18" s="3">
         <v>3200</v>
       </c>
       <c r="U18" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V18" s="3">
         <v>3300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>3200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>3500</v>
-      </c>
-      <c r="X18" s="3">
-        <v>3100</v>
       </c>
       <c r="Y18" s="3">
         <v>3100</v>
       </c>
       <c r="Z18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>3700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>3000</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>2800</v>
       </c>
       <c r="AC18" s="3">
         <v>2800</v>
       </c>
       <c r="AD18" s="3">
+        <v>2800</v>
+      </c>
+      <c r="AE18" s="3">
         <v>2700</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>2400</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1683,22 +1716,23 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-2600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-2200</v>
       </c>
       <c r="H20" s="3">
         <v>-2200</v>
@@ -1707,31 +1741,31 @@
         <v>-2200</v>
       </c>
       <c r="J20" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1400</v>
       </c>
       <c r="N20" s="3">
         <v>-1400</v>
       </c>
       <c r="O20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="P20" s="3">
         <v>-1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1800</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-2000</v>
       </c>
       <c r="S20" s="3">
         <v>-2000</v>
@@ -1743,13 +1777,13 @@
         <v>-2000</v>
       </c>
       <c r="V20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-2100</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-1800</v>
       </c>
       <c r="Y20" s="3">
         <v>-1800</v>
@@ -1758,22 +1792,25 @@
         <v>-1800</v>
       </c>
       <c r="AA20" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="AB20" s="3">
         <v>-1700</v>
       </c>
       <c r="AC20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-1500</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-1400</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>-1600</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1861,8 +1898,11 @@
       <c r="AE21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1950,70 +1990,73 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1700</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1500</v>
       </c>
       <c r="I23" s="3">
         <v>1500</v>
       </c>
       <c r="J23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K23" s="3">
         <v>1800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>2100</v>
       </c>
       <c r="N23" s="3">
         <v>2100</v>
       </c>
       <c r="O23" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P23" s="3">
         <v>1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>1200</v>
       </c>
       <c r="T23" s="3">
         <v>1200</v>
       </c>
       <c r="U23" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="V23" s="3">
         <v>1300</v>
       </c>
       <c r="W23" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="X23" s="3">
         <v>1400</v>
@@ -2022,25 +2065,28 @@
         <v>1400</v>
       </c>
       <c r="Z23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA23" s="3">
         <v>1900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>1300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1100</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>1300</v>
       </c>
       <c r="AD23" s="3">
         <v>1300</v>
       </c>
       <c r="AE23" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AF23" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2048,28 +2094,28 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>300</v>
       </c>
       <c r="G24" s="3">
+        <v>300</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
       </c>
       <c r="M24" s="3">
         <v>300</v>
@@ -2081,7 +2127,7 @@
         <v>300</v>
       </c>
       <c r="P24" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q24" s="3">
         <v>200</v>
@@ -2090,16 +2136,16 @@
         <v>200</v>
       </c>
       <c r="S24" s="3">
+        <v>200</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
-      </c>
-      <c r="V24" s="3">
-        <v>200</v>
       </c>
       <c r="W24" s="3">
         <v>200</v>
@@ -2111,25 +2157,28 @@
         <v>200</v>
       </c>
       <c r="Z24" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA24" s="3">
         <v>500</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>200</v>
       </c>
       <c r="AB24" s="3">
         <v>200</v>
       </c>
       <c r="AC24" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD24" s="3">
         <v>300</v>
       </c>
       <c r="AE24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AF24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2217,61 +2266,64 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E26" s="3">
         <v>1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1400</v>
       </c>
       <c r="I26" s="3">
         <v>1400</v>
       </c>
       <c r="J26" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1000</v>
-      </c>
-      <c r="T26" s="3">
-        <v>1100</v>
       </c>
       <c r="U26" s="3">
         <v>1100</v>
@@ -2289,78 +2341,81 @@
         <v>1100</v>
       </c>
       <c r="Z26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>1400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>900</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>1000</v>
       </c>
       <c r="AD26" s="3">
         <v>1000</v>
       </c>
       <c r="AE26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF26" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E27" s="3">
         <v>1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1400</v>
       </c>
       <c r="I27" s="3">
         <v>1400</v>
       </c>
       <c r="J27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1000</v>
-      </c>
-      <c r="T27" s="3">
-        <v>1100</v>
       </c>
       <c r="U27" s="3">
         <v>1100</v>
@@ -2378,25 +2433,28 @@
         <v>1100</v>
       </c>
       <c r="Z27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>1400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>900</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>1000</v>
       </c>
       <c r="AD27" s="3">
         <v>1000</v>
       </c>
       <c r="AE27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF27" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2484,8 +2542,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2573,8 +2634,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2662,8 +2726,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,22 +2818,25 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E32" s="3">
         <v>2600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2200</v>
       </c>
       <c r="H32" s="3">
         <v>2200</v>
@@ -2775,31 +2845,31 @@
         <v>2200</v>
       </c>
       <c r="J32" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K32" s="3">
         <v>2000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1400</v>
       </c>
       <c r="N32" s="3">
         <v>1400</v>
       </c>
       <c r="O32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P32" s="3">
         <v>1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1800</v>
-      </c>
-      <c r="R32" s="3">
-        <v>2000</v>
       </c>
       <c r="S32" s="3">
         <v>2000</v>
@@ -2811,13 +2881,13 @@
         <v>2000</v>
       </c>
       <c r="V32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="W32" s="3">
         <v>1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>2100</v>
-      </c>
-      <c r="X32" s="3">
-        <v>1800</v>
       </c>
       <c r="Y32" s="3">
         <v>1800</v>
@@ -2826,75 +2896,78 @@
         <v>1800</v>
       </c>
       <c r="AA32" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="AB32" s="3">
         <v>1700</v>
       </c>
       <c r="AC32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AD32" s="3">
         <v>1500</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>1400</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E33" s="3">
         <v>1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>1400</v>
       </c>
       <c r="I33" s="3">
         <v>1400</v>
       </c>
       <c r="J33" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1000</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1100</v>
       </c>
       <c r="U33" s="3">
         <v>1100</v>
@@ -2912,25 +2985,28 @@
         <v>1100</v>
       </c>
       <c r="Z33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>1400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>1000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>900</v>
-      </c>
-      <c r="AC33" s="3">
-        <v>1000</v>
       </c>
       <c r="AD33" s="3">
         <v>1000</v>
       </c>
       <c r="AE33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF33" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3018,61 +3094,64 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E35" s="3">
         <v>1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>1400</v>
       </c>
       <c r="I35" s="3">
         <v>1400</v>
       </c>
       <c r="J35" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1000</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1100</v>
       </c>
       <c r="U35" s="3">
         <v>1100</v>
@@ -3090,119 +3169,125 @@
         <v>1100</v>
       </c>
       <c r="Z35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>1400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>1000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>900</v>
-      </c>
-      <c r="AC35" s="3">
-        <v>1000</v>
       </c>
       <c r="AD35" s="3">
         <v>1000</v>
       </c>
       <c r="AE35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF35" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3234,8 +3319,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3267,186 +3353,193 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E41" s="3">
         <v>6100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>15000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>6600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>5800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>8400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>9900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>6300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5200</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>4300</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E42" s="3">
         <v>14200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>12100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>49700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>63100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>66000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>49500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>53100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>43400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>23600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>28400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>31500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>14000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>16500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>13100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>23300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>21100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>24900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>13200</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>9000</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>16600</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>19700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>16900</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>17300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>15500</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>7100</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3534,8 +3627,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3623,8 +3719,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3712,8 +3811,11 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3801,8 +3903,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3890,97 +3995,103 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E48" s="3">
         <v>8200</v>
-      </c>
-      <c r="E48" s="3">
-        <v>8400</v>
       </c>
       <c r="F48" s="3">
         <v>8400</v>
       </c>
       <c r="G48" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H48" s="3">
         <v>8500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>8600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>8700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>9100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>8500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>7200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5500</v>
-      </c>
-      <c r="U48" s="3">
-        <v>5700</v>
       </c>
       <c r="V48" s="3">
         <v>5700</v>
       </c>
       <c r="W48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="X48" s="3">
         <v>5800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>6000</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>6100</v>
       </c>
       <c r="Z48" s="3">
         <v>6100</v>
       </c>
       <c r="AA48" s="3">
+        <v>6100</v>
+      </c>
+      <c r="AB48" s="3">
         <v>5600</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>5700</v>
       </c>
       <c r="AC48" s="3">
         <v>5700</v>
       </c>
       <c r="AD48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="AE48" s="3">
         <v>5600</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4068,8 +4179,11 @@
       <c r="AE49" s="3">
         <v>1200</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4157,8 +4271,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4246,8 +4363,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4326,17 +4446,20 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>5</v>
+      <c r="AC52" s="3">
+        <v>0</v>
       </c>
       <c r="AD52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AE52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF52" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4424,97 +4547,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>543200</v>
+      </c>
+      <c r="E54" s="3">
         <v>542900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>538300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>527600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>534900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>532300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>521600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>500000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>486400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>480800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>467700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>466200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>461700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>423600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>417100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>419000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>414500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>395600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>398200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>387800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>379800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>372100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>372700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>372300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>366900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>355200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>351800</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>342500</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>339900</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4546,8 +4675,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4579,8 +4709,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4668,8 +4799,11 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4757,8 +4891,11 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4766,88 +4903,91 @@
         <v>3800</v>
       </c>
       <c r="E59" s="3">
-        <v>3400</v>
+        <v>3800</v>
       </c>
       <c r="F59" s="3">
         <v>3400</v>
       </c>
       <c r="G59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H59" s="3">
         <v>3800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>3900</v>
       </c>
       <c r="K59" s="3">
         <v>3900</v>
       </c>
       <c r="L59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3100</v>
-      </c>
-      <c r="V59" s="3">
-        <v>2900</v>
       </c>
       <c r="W59" s="3">
         <v>2900</v>
       </c>
       <c r="X59" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2300</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2700</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>2000</v>
       </c>
       <c r="AD59" s="3">
         <v>2000</v>
       </c>
       <c r="AE59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AF59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4935,8 +5075,11 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5024,8 +5167,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5113,8 +5259,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5202,8 +5351,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5291,8 +5443,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5380,97 +5535,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>496900</v>
+      </c>
+      <c r="E66" s="3">
         <v>494800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>492700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>484100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>488300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>482200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>467300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>446300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>433500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>428700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>415400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>415700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>412500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>378300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>370800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>373400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>369800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>352700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>356800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>348100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>339800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>332500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>333100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>333400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>329200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>318900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>314300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>304500</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>308700</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5502,8 +5663,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5591,8 +5753,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5680,8 +5845,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5761,16 +5929,19 @@
         <v>0</v>
       </c>
       <c r="AC70" s="3">
-        <v>2300</v>
+        <v>0</v>
       </c>
       <c r="AD70" s="3">
         <v>2300</v>
       </c>
       <c r="AE70" s="3">
+        <v>2300</v>
+      </c>
+      <c r="AF70" s="3">
         <v>7600</v>
       </c>
     </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5858,97 +6029,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>59400</v>
+      </c>
+      <c r="E72" s="3">
         <v>59800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>58900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>57700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>56400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>55200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>54100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>53000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>51900</v>
       </c>
       <c r="L72" s="3">
         <v>51900</v>
       </c>
       <c r="M72" s="3">
+        <v>51900</v>
+      </c>
+      <c r="N72" s="3">
         <v>50600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>49100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>47700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>46500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>45700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>44700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>43700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>42900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>42100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>41200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>40300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>40000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>39300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>38400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>37200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>36400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>35700</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>34900</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>26100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6036,8 +6213,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6125,8 +6305,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6214,97 +6397,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E76" s="3">
         <v>48100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>43400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>46600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>50100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>54300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>53800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>53000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>50500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>49200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>45300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>46300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>45600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>42800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>41400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>39800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>40000</v>
-      </c>
-      <c r="X76" s="3">
-        <v>39600</v>
       </c>
       <c r="Y76" s="3">
         <v>39600</v>
       </c>
       <c r="Z76" s="3">
+        <v>39600</v>
+      </c>
+      <c r="AA76" s="3">
         <v>38900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>37800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>36300</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>35300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>35800</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6392,155 +6581,161 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>41547</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E81" s="3">
         <v>1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>1400</v>
       </c>
       <c r="I81" s="3">
         <v>1400</v>
       </c>
       <c r="J81" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1000</v>
-      </c>
-      <c r="T81" s="3">
-        <v>1100</v>
       </c>
       <c r="U81" s="3">
         <v>1100</v>
@@ -6558,25 +6753,28 @@
         <v>1100</v>
       </c>
       <c r="Z81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>1400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>1000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>900</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>1000</v>
       </c>
       <c r="AD81" s="3">
         <v>1000</v>
       </c>
       <c r="AE81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF81" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6608,8 +6806,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6697,8 +6896,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6786,8 +6988,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6875,8 +7080,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6964,8 +7172,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7053,8 +7264,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7142,8 +7356,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7231,8 +7448,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7264,8 +7484,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7353,8 +7574,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7442,8 +7666,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7531,8 +7758,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7620,8 +7850,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7653,8 +7886,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7742,8 +7976,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7831,8 +8068,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7920,8 +8160,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8009,8 +8252,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8098,8 +8344,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8187,8 +8436,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8274,6 +8526,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
